--- a/UI2/output/log.xlsx
+++ b/UI2/output/log.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exercise 7" sheetId="7" state="visible" r:id="rId7"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="exercise 1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="exercise 2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="exercise 3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="exercise 4" sheetId="4" r:id="rId4"/>
+    <s:sheet name="exercise 5" sheetId="5" r:id="rId5"/>
+    <s:sheet name="exercise 6" sheetId="6" r:id="rId6"/>
+    <s:sheet name="exercise 7" sheetId="7" r:id="rId7"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -46,7 +46,184 @@
     <t>errmsg</t>
   </si>
   <si>
+    <t>Qi Chen</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-19</t>
+  </si>
+  <si>
     <t>sync_rate</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-20</t>
+  </si>
+  <si>
+    <t>1st right push down lower enough?</t>
+  </si>
+  <si>
+    <t>1st lower right elbow angle</t>
+  </si>
+  <si>
+    <t>1st right hand up straight?</t>
+  </si>
+  <si>
+    <t>1st straight right elbow angle</t>
+  </si>
+  <si>
+    <t>2nd right push down lower enough?</t>
+  </si>
+  <si>
+    <t>2nd lower right elbow angle</t>
+  </si>
+  <si>
+    <t>2nd right hand up straight?</t>
+  </si>
+  <si>
+    <t>2nd straight right elbow angle</t>
+  </si>
+  <si>
+    <t>3rd right push down lower enough?</t>
+  </si>
+  <si>
+    <t>3rd lower right elbow angle</t>
+  </si>
+  <si>
+    <t>3rd right hand up straight?</t>
+  </si>
+  <si>
+    <t>3rd straight right elbow angle</t>
+  </si>
+  <si>
+    <t>4th right push down lower enough?</t>
+  </si>
+  <si>
+    <t>4th lower right elbow angle</t>
+  </si>
+  <si>
+    <t>4th right hand up straight?</t>
+  </si>
+  <si>
+    <t>4th straight right elbow angle</t>
+  </si>
+  <si>
+    <t>average right hand straight angle</t>
+  </si>
+  <si>
+    <t>average right hand push down angle</t>
+  </si>
+  <si>
+    <t>1st left push down lower enough?</t>
+  </si>
+  <si>
+    <t>1st lower left elbow angle</t>
+  </si>
+  <si>
+    <t>1st left hand up straight?</t>
+  </si>
+  <si>
+    <t>1st straight left elbow angle</t>
+  </si>
+  <si>
+    <t>2nd left push down lower enough?</t>
+  </si>
+  <si>
+    <t>2nd lower left elbow angle</t>
+  </si>
+  <si>
+    <t>2nd left hand up straight?</t>
+  </si>
+  <si>
+    <t>2nd straight left elbow angle</t>
+  </si>
+  <si>
+    <t>3rd left push down lower enough?</t>
+  </si>
+  <si>
+    <t>3rd lower left elbow angle</t>
+  </si>
+  <si>
+    <t>3rd left hand up straight?</t>
+  </si>
+  <si>
+    <t>3rd straight left elbow angle</t>
+  </si>
+  <si>
+    <t>4th left push down lower enough?</t>
+  </si>
+  <si>
+    <t>4th lower left elbow angle</t>
+  </si>
+  <si>
+    <t>4th left hand up straight?</t>
+  </si>
+  <si>
+    <t>4th straight left elbow angle</t>
+  </si>
+  <si>
+    <t>average left hand straight angle</t>
+  </si>
+  <si>
+    <t>average left hand push down angle</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Max right bending angle</t>
+  </si>
+  <si>
+    <t>Min right bending angle</t>
+  </si>
+  <si>
+    <t>Max left bending angle</t>
+  </si>
+  <si>
+    <t>Min left bending angle</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-21</t>
+  </si>
+  <si>
+    <t>Max rotation depth</t>
+  </si>
+  <si>
+    <t>Min rotation depth</t>
+  </si>
+  <si>
+    <t>q q</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-53</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Max hold time</t>
+  </si>
+  <si>
+    <t>Min hold time</t>
+  </si>
+  <si>
+    <t>average hold time</t>
+  </si>
+  <si>
+    <t>clasp rate</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-25</t>
+  </si>
+  <si>
+    <t>2018-3-15-21-52</t>
   </si>
 </sst>
 </file>
@@ -63,7 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,14 +275,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -395,13 +577,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -427,6 +609,29 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.86390336241045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>77.03703920535486</v>
+      </c>
+      <c r="G2" t="n">
+        <v>57.34908592625425</v>
       </c>
     </row>
   </sheetData>
@@ -440,13 +645,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -471,10 +676,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>46.81015606801768</v>
+      </c>
+      <c r="F2" t="n">
+        <v>70.99227529776917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.13905312819104</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -488,15 +719,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +741,237 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47.76393477920845</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="n">
+        <v>163.649948411781</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48.69557300471953</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="n">
+        <v>163.6656187197238</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="n">
+        <v>51.97644221693722</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="n">
+        <v>159.8156410688154</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="n">
+        <v>49.4745290157706</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="n">
+        <v>166.9884386511605</v>
+      </c>
+      <c r="U2" t="n">
+        <v>163.5299117128702</v>
+      </c>
+      <c r="V2" t="n">
+        <v>49.47761975415895</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="n">
+        <v>40.30816231532291</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>166.6471914449756</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>43.90240944699996</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>163.6948001072265</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41.28694421625423</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>168.3250424346402</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>44.89962183589149</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>169.7808987903985</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>167.1119831943102</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>42.59928445361714</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +991,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -560,15 +1021,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +1043,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61.50235186308937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53.81505940431422</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.90373823657983</v>
+      </c>
+      <c r="H2" t="n">
+        <v>44.03911687278126</v>
       </c>
     </row>
   </sheetData>
@@ -596,15 +1095,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +1117,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -632,15 +1157,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +1179,71 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.673333333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UI2/output/log.xlsx
+++ b/UI2/output/log.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="exercise 1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="exercise 2" sheetId="2" r:id="rId2"/>
-    <s:sheet name="exercise 3" sheetId="3" r:id="rId3"/>
-    <s:sheet name="exercise 4" sheetId="4" r:id="rId4"/>
-    <s:sheet name="exercise 5" sheetId="5" r:id="rId5"/>
-    <s:sheet name="exercise 6" sheetId="6" r:id="rId6"/>
-    <s:sheet name="exercise 7" sheetId="7" r:id="rId7"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\K_project\UI2\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F59FBB-2C89-4F2F-9593-41F949F47651}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="exercise 1" sheetId="1" r:id="rId1"/>
+    <sheet name="exercise 2" sheetId="2" r:id="rId2"/>
+    <sheet name="exercise 3" sheetId="3" r:id="rId3"/>
+    <sheet name="exercise 4" sheetId="4" r:id="rId4"/>
+    <sheet name="exercise 5" sheetId="5" r:id="rId5"/>
+    <sheet name="exercise 6" sheetId="6" r:id="rId6"/>
+    <sheet name="exercise 7" sheetId="7" r:id="rId7"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -46,6 +52,213 @@
     <t>errmsg</t>
   </si>
   <si>
+    <t>sync_rate</t>
+  </si>
+  <si>
+    <t>1st right push down lower enough?</t>
+  </si>
+  <si>
+    <t>1st lower right elbow angle</t>
+  </si>
+  <si>
+    <t>1st right hand up straight?</t>
+  </si>
+  <si>
+    <t>1st straight right elbow angle</t>
+  </si>
+  <si>
+    <t>2nd right push down lower enough?</t>
+  </si>
+  <si>
+    <t>2nd lower right elbow angle</t>
+  </si>
+  <si>
+    <t>2nd right hand up straight?</t>
+  </si>
+  <si>
+    <t>2nd straight right elbow angle</t>
+  </si>
+  <si>
+    <t>3rd right push down lower enough?</t>
+  </si>
+  <si>
+    <t>3rd lower right elbow angle</t>
+  </si>
+  <si>
+    <t>3rd right hand up straight?</t>
+  </si>
+  <si>
+    <t>3rd straight right elbow angle</t>
+  </si>
+  <si>
+    <t>4th right push down lower enough?</t>
+  </si>
+  <si>
+    <t>4th lower right elbow angle</t>
+  </si>
+  <si>
+    <t>4th right hand up straight?</t>
+  </si>
+  <si>
+    <t>4th straight right elbow angle</t>
+  </si>
+  <si>
+    <t>average right hand straight angle</t>
+  </si>
+  <si>
+    <t>average right hand push down angle</t>
+  </si>
+  <si>
+    <t>1st left push down lower enough?</t>
+  </si>
+  <si>
+    <t>1st lower left elbow angle</t>
+  </si>
+  <si>
+    <t>1st left hand up straight?</t>
+  </si>
+  <si>
+    <t>1st straight left elbow angle</t>
+  </si>
+  <si>
+    <t>2nd left push down lower enough?</t>
+  </si>
+  <si>
+    <t>2nd lower left elbow angle</t>
+  </si>
+  <si>
+    <t>2nd left hand up straight?</t>
+  </si>
+  <si>
+    <t>2nd straight left elbow angle</t>
+  </si>
+  <si>
+    <t>3rd left push down lower enough?</t>
+  </si>
+  <si>
+    <t>3rd lower left elbow angle</t>
+  </si>
+  <si>
+    <t>3rd left hand up straight?</t>
+  </si>
+  <si>
+    <t>3rd straight left elbow angle</t>
+  </si>
+  <si>
+    <t>4th left push down lower enough?</t>
+  </si>
+  <si>
+    <t>4th lower left elbow angle</t>
+  </si>
+  <si>
+    <t>4th left hand up straight?</t>
+  </si>
+  <si>
+    <t>4th straight left elbow angle</t>
+  </si>
+  <si>
+    <t>average left hand straight angle</t>
+  </si>
+  <si>
+    <t>average left hand push down angle</t>
+  </si>
+  <si>
+    <t>1st right hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>1st right hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>2nd right hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>2nd right hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>3rd right hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>3rd right hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>4th right hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>4th right hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>average right hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>average right hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>1st left hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>1st left hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>2nd left hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>2nd left hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>3rd left hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>3rd left hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>4th left hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>4th left hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>average left hand angle (H-close)</t>
+  </si>
+  <si>
+    <t>average left hand angle (T-pose)</t>
+  </si>
+  <si>
+    <t>jane doe</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>2018-4-2-21-16</t>
+  </si>
+  <si>
+    <t>Max right bending angle</t>
+  </si>
+  <si>
+    <t>Min right bending angle</t>
+  </si>
+  <si>
+    <t>Max left bending angle</t>
+  </si>
+  <si>
+    <t>Min left bending angle</t>
+  </si>
+  <si>
+    <t>Max rotation depth</t>
+  </si>
+  <si>
+    <t>Min rotation depth</t>
+  </si>
+  <si>
+    <t>Max hold time</t>
+  </si>
+  <si>
+    <t>Min hold time</t>
+  </si>
+  <si>
+    <t>average hold time</t>
+  </si>
+  <si>
     <t>Qi Chen</t>
   </si>
   <si>
@@ -55,148 +268,64 @@
     <t>2018-3-15-21-19</t>
   </si>
   <si>
-    <t>sync_rate</t>
+    <t>2018-3-19-19-56</t>
+  </si>
+  <si>
+    <t>2018-3-19-20-9</t>
+  </si>
+  <si>
+    <t>abc xcd</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>2018-3-27-15-35</t>
+  </si>
+  <si>
+    <t>The 3rd time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>The 4th time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>q q</t>
+  </si>
+  <si>
+    <t>2018-4-2-17-19</t>
+  </si>
+  <si>
+    <t>Did not do enough repetition.</t>
+  </si>
+  <si>
+    <t>2018-4-2-18-43</t>
+  </si>
+  <si>
+    <t>The 1st time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>2018-4-2-19-58</t>
   </si>
   <si>
     <t>2018-3-15-21-20</t>
   </si>
   <si>
-    <t>1st right push down lower enough?</t>
-  </si>
-  <si>
-    <t>1st lower right elbow angle</t>
-  </si>
-  <si>
-    <t>1st right hand up straight?</t>
-  </si>
-  <si>
-    <t>1st straight right elbow angle</t>
-  </si>
-  <si>
-    <t>2nd right push down lower enough?</t>
-  </si>
-  <si>
-    <t>2nd lower right elbow angle</t>
-  </si>
-  <si>
-    <t>2nd right hand up straight?</t>
-  </si>
-  <si>
-    <t>2nd straight right elbow angle</t>
-  </si>
-  <si>
-    <t>3rd right push down lower enough?</t>
-  </si>
-  <si>
-    <t>3rd lower right elbow angle</t>
-  </si>
-  <si>
-    <t>3rd right hand up straight?</t>
-  </si>
-  <si>
-    <t>3rd straight right elbow angle</t>
-  </si>
-  <si>
-    <t>4th right push down lower enough?</t>
-  </si>
-  <si>
-    <t>4th lower right elbow angle</t>
-  </si>
-  <si>
-    <t>4th right hand up straight?</t>
-  </si>
-  <si>
-    <t>4th straight right elbow angle</t>
-  </si>
-  <si>
-    <t>average right hand straight angle</t>
-  </si>
-  <si>
-    <t>average right hand push down angle</t>
-  </si>
-  <si>
-    <t>1st left push down lower enough?</t>
-  </si>
-  <si>
-    <t>1st lower left elbow angle</t>
-  </si>
-  <si>
-    <t>1st left hand up straight?</t>
-  </si>
-  <si>
-    <t>1st straight left elbow angle</t>
-  </si>
-  <si>
-    <t>2nd left push down lower enough?</t>
-  </si>
-  <si>
-    <t>2nd lower left elbow angle</t>
-  </si>
-  <si>
-    <t>2nd left hand up straight?</t>
-  </si>
-  <si>
-    <t>2nd straight left elbow angle</t>
-  </si>
-  <si>
-    <t>3rd left push down lower enough?</t>
-  </si>
-  <si>
-    <t>3rd lower left elbow angle</t>
-  </si>
-  <si>
-    <t>3rd left hand up straight?</t>
-  </si>
-  <si>
-    <t>3rd straight left elbow angle</t>
-  </si>
-  <si>
-    <t>4th left push down lower enough?</t>
-  </si>
-  <si>
-    <t>4th lower left elbow angle</t>
-  </si>
-  <si>
-    <t>4th left hand up straight?</t>
-  </si>
-  <si>
-    <t>4th straight left elbow angle</t>
-  </si>
-  <si>
-    <t>average left hand straight angle</t>
-  </si>
-  <si>
-    <t>average left hand push down angle</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Max right bending angle</t>
-  </si>
-  <si>
-    <t>Min right bending angle</t>
-  </si>
-  <si>
-    <t>Max left bending angle</t>
-  </si>
-  <si>
-    <t>Min left bending angle</t>
-  </si>
-  <si>
     <t>2018-3-15-21-21</t>
   </si>
   <si>
-    <t>Max rotation depth</t>
-  </si>
-  <si>
-    <t>Min rotation depth</t>
-  </si>
-  <si>
-    <t>q q</t>
+    <t>qi chen</t>
+  </si>
+  <si>
+    <t>2018-3-27-15-54</t>
   </si>
   <si>
     <t>2018-3-15-21-53</t>
@@ -208,48 +337,38 @@
     <t>45</t>
   </si>
   <si>
-    <t>Max hold time</t>
-  </si>
-  <si>
-    <t>Min hold time</t>
-  </si>
-  <si>
-    <t>average hold time</t>
-  </si>
-  <si>
-    <t>clasp rate</t>
-  </si>
-  <si>
     <t>2018-3-15-21-25</t>
   </si>
   <si>
     <t>2018-3-15-21-52</t>
+  </si>
+  <si>
+    <t>2018-3-27-16-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -264,27 +383,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -572,20 +707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,49 +742,317 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.86390336241045</v>
-      </c>
-      <c r="F2" t="n">
-        <v>77.03703920535486</v>
-      </c>
-      <c r="G2" t="n">
-        <v>57.34908592625425</v>
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>43.863903362410447</v>
+      </c>
+      <c r="F2">
+        <v>77.037039205354858</v>
+      </c>
+      <c r="G2">
+        <v>57.349085926254247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>19.31018518518518</v>
+      </c>
+      <c r="F3">
+        <v>45.258243604549243</v>
+      </c>
+      <c r="G3">
+        <v>36.230353998751937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>31.214292621117039</v>
+      </c>
+      <c r="F4">
+        <v>48.781046346558377</v>
+      </c>
+      <c r="G4">
+        <v>40.687331439194523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>37.417343702808807</v>
+      </c>
+      <c r="F5">
+        <v>63.196136975718503</v>
+      </c>
+      <c r="G5">
+        <v>53.709669402980353</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>14.52880855336995</v>
+      </c>
+      <c r="F6">
+        <v>57.857716573407203</v>
+      </c>
+      <c r="G6">
+        <v>35.188492231941012</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>27.51018137920024</v>
+      </c>
+      <c r="F7">
+        <v>81.057995136038883</v>
+      </c>
+      <c r="G7">
+        <v>58.954906383292993</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>27.51018137920024</v>
+      </c>
+      <c r="F8">
+        <v>81.057995136038883</v>
+      </c>
+      <c r="G8">
+        <v>58.954906383292993</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>27.51018137920024</v>
+      </c>
+      <c r="F9">
+        <v>81.057995136038883</v>
+      </c>
+      <c r="G9">
+        <v>58.954906383292993</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>27.51018137920024</v>
+      </c>
+      <c r="F10">
+        <v>81.057995136038883</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>27.51018137920024</v>
+      </c>
+      <c r="F11">
+        <v>81.057995136038883</v>
+      </c>
+      <c r="G11">
+        <v>58.954906383292993</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>35.500772052928909</v>
+      </c>
+      <c r="F12">
+        <v>58.666538784572822</v>
+      </c>
+      <c r="G12">
+        <v>45.301400405519537</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,58 +1075,54 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>46.81015606801768</v>
-      </c>
-      <c r="F2" t="n">
-        <v>70.99227529776917</v>
-      </c>
-      <c r="G2" t="n">
-        <v>59.13905312819104</v>
-      </c>
-      <c r="H2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>46.810156068017683</v>
+      </c>
+      <c r="F2">
+        <v>70.992275297769169</v>
+      </c>
+      <c r="G2">
+        <v>59.139053128191037</v>
+      </c>
+      <c r="H2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,259 +1136,263 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47.76393477920845</v>
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>47.763934779208448</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="n">
+        <v>95</v>
+      </c>
+      <c r="H2">
         <v>163.649948411781</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="n">
-        <v>48.69557300471953</v>
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>48.695573004719527</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="n">
+        <v>95</v>
+      </c>
+      <c r="L2">
         <v>163.6656187197238</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.97644221693722</v>
+        <v>95</v>
+      </c>
+      <c r="N2">
+        <v>51.976442216937222</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="n">
-        <v>159.8156410688154</v>
+        <v>96</v>
+      </c>
+      <c r="P2">
+        <v>159.81564106881541</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="n">
-        <v>49.4745290157706</v>
+        <v>95</v>
+      </c>
+      <c r="R2">
+        <v>49.474529015770599</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="n">
-        <v>166.9884386511605</v>
-      </c>
-      <c r="U2" t="n">
-        <v>163.5299117128702</v>
-      </c>
-      <c r="V2" t="n">
-        <v>49.47761975415895</v>
+        <v>95</v>
+      </c>
+      <c r="T2">
+        <v>166.98843865116049</v>
+      </c>
+      <c r="U2">
+        <v>163.52991171287019</v>
+      </c>
+      <c r="V2">
+        <v>49.477619754158951</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" t="n">
+        <v>95</v>
+      </c>
+      <c r="X2">
         <v>40.30816231532291</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>166.6471914449756</v>
+        <v>95</v>
+      </c>
+      <c r="Z2">
+        <v>166.64719144497559</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>43.90240944699996</v>
+        <v>95</v>
+      </c>
+      <c r="AB2">
+        <v>43.902409446999961</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>163.6948001072265</v>
+        <v>95</v>
+      </c>
+      <c r="AD2">
+        <v>163.69480010722651</v>
       </c>
       <c r="AE2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41.28694421625423</v>
+        <v>95</v>
+      </c>
+      <c r="AF2">
+        <v>41.286944216254227</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>168.3250424346402</v>
+        <v>95</v>
+      </c>
+      <c r="AH2">
+        <v>168.32504243464021</v>
       </c>
       <c r="AI2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>44.89962183589149</v>
+        <v>95</v>
+      </c>
+      <c r="AJ2">
+        <v>44.899621835891487</v>
       </c>
       <c r="AK2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>169.7808987903985</v>
-      </c>
-      <c r="AM2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL2">
+        <v>169.78089879039851</v>
+      </c>
+      <c r="AM2">
         <v>167.1119831943102</v>
       </c>
-      <c r="AN2" t="n">
-        <v>42.59928445361714</v>
+      <c r="AN2">
+        <v>42.599284453617138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,29 +1406,159 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>92.012121404571644</v>
+      </c>
+      <c r="F2">
+        <v>89.838329375978319</v>
+      </c>
+      <c r="G2">
+        <v>91.863755980084633</v>
+      </c>
+      <c r="H2">
+        <v>88.685376080035823</v>
+      </c>
+      <c r="I2">
+        <v>90.813999381355373</v>
+      </c>
+      <c r="J2">
+        <v>91.359186636504958</v>
+      </c>
+      <c r="K2">
+        <v>89.286423824171365</v>
+      </c>
+      <c r="L2">
+        <v>92.508124523422296</v>
+      </c>
+      <c r="M2">
+        <v>90.994075147545757</v>
+      </c>
+      <c r="N2">
+        <v>90.597754153985349</v>
+      </c>
+      <c r="O2">
+        <v>92.55098280962801</v>
+      </c>
+      <c r="P2">
+        <v>89.54978831253392</v>
+      </c>
+      <c r="Q2">
+        <v>90.941739257394644</v>
+      </c>
+      <c r="R2">
+        <v>88.660814972320978</v>
+      </c>
+      <c r="S2">
+        <v>93.39784920868783</v>
+      </c>
+      <c r="T2">
+        <v>92.030387016433025</v>
+      </c>
+      <c r="U2">
+        <v>90.329133871140158</v>
+      </c>
+      <c r="V2">
+        <v>93.060224351266299</v>
+      </c>
+      <c r="W2">
+        <v>91.804926286712657</v>
+      </c>
+      <c r="X2">
+        <v>90.825303663138556</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,67 +1572,92 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61.50235186308937</v>
-      </c>
-      <c r="F2" t="n">
-        <v>53.81505940431422</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61.90373823657983</v>
-      </c>
-      <c r="H2" t="n">
-        <v>44.03911687278126</v>
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>61.502351863089373</v>
+      </c>
+      <c r="F2">
+        <v>53.815059404314219</v>
+      </c>
+      <c r="G2">
+        <v>61.903738236579827</v>
+      </c>
+      <c r="H2">
+        <v>44.039116872781257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>80.566315239740476</v>
+      </c>
+      <c r="F3">
+        <v>67.995557908012358</v>
+      </c>
+      <c r="G3">
+        <v>64.341550811857431</v>
+      </c>
+      <c r="H3">
+        <v>52.311170505424393</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,55 +1671,56 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,74 +1734,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="n">
+        <v>103</v>
+      </c>
+      <c r="E2">
         <v>3.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.333333333333333</v>
       </c>
-      <c r="H2" t="n">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="F3">
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="G3">
+        <v>2.6733333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>4.5666666666666664</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.533333333333333</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.066666666666667</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.673333333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="G4">
+        <v>2.3555555555555561</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/UI2/output/log.xlsx
+++ b/UI2/output/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\K_project\UI2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F59FBB-2C89-4F2F-9593-41F949F47651}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{192CB87C-F24D-4DC4-B7C0-4B9243016EBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exercise 1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="exercise 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -52,54 +53,81 @@
     <t>errmsg</t>
   </si>
   <si>
+    <t>jane doe</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>2018-4-5-18-58</t>
+  </si>
+  <si>
+    <t>The 3rd time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>Did not do enough repetition.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-3</t>
+  </si>
+  <si>
+    <t>The 1st time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-15</t>
+  </si>
+  <si>
+    <t>The 2nd time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>The 4th time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-24</t>
+  </si>
+  <si>
+    <t>Only need to do 4 times</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-25</t>
+  </si>
+  <si>
+    <t>The 5th time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-29</t>
+  </si>
+  <si>
+    <t>The 6th time try, is not deep enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-32</t>
+  </si>
+  <si>
     <t>sync_rate</t>
   </si>
   <si>
-    <t>1st right push down lower enough?</t>
-  </si>
-  <si>
     <t>1st lower right elbow angle</t>
   </si>
   <si>
-    <t>1st right hand up straight?</t>
-  </si>
-  <si>
     <t>1st straight right elbow angle</t>
   </si>
   <si>
-    <t>2nd right push down lower enough?</t>
-  </si>
-  <si>
     <t>2nd lower right elbow angle</t>
   </si>
   <si>
-    <t>2nd right hand up straight?</t>
-  </si>
-  <si>
     <t>2nd straight right elbow angle</t>
   </si>
   <si>
-    <t>3rd right push down lower enough?</t>
-  </si>
-  <si>
     <t>3rd lower right elbow angle</t>
   </si>
   <si>
-    <t>3rd right hand up straight?</t>
-  </si>
-  <si>
     <t>3rd straight right elbow angle</t>
   </si>
   <si>
-    <t>4th right push down lower enough?</t>
-  </si>
-  <si>
     <t>4th lower right elbow angle</t>
   </si>
   <si>
-    <t>4th right hand up straight?</t>
-  </si>
-  <si>
     <t>4th straight right elbow angle</t>
   </si>
   <si>
@@ -109,51 +137,27 @@
     <t>average right hand push down angle</t>
   </si>
   <si>
-    <t>1st left push down lower enough?</t>
-  </si>
-  <si>
     <t>1st lower left elbow angle</t>
   </si>
   <si>
-    <t>1st left hand up straight?</t>
-  </si>
-  <si>
     <t>1st straight left elbow angle</t>
   </si>
   <si>
-    <t>2nd left push down lower enough?</t>
-  </si>
-  <si>
     <t>2nd lower left elbow angle</t>
   </si>
   <si>
-    <t>2nd left hand up straight?</t>
-  </si>
-  <si>
     <t>2nd straight left elbow angle</t>
   </si>
   <si>
-    <t>3rd left push down lower enough?</t>
-  </si>
-  <si>
     <t>3rd lower left elbow angle</t>
   </si>
   <si>
-    <t>3rd left hand up straight?</t>
-  </si>
-  <si>
     <t>3rd straight left elbow angle</t>
   </si>
   <si>
-    <t>4th left push down lower enough?</t>
-  </si>
-  <si>
     <t>4th lower left elbow angle</t>
   </si>
   <si>
-    <t>4th left hand up straight?</t>
-  </si>
-  <si>
     <t>4th straight left elbow angle</t>
   </si>
   <si>
@@ -163,6 +167,54 @@
     <t>average left hand push down angle</t>
   </si>
   <si>
+    <t>2018-4-5-17-8</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-13</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-14</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-18</t>
+  </si>
+  <si>
+    <t>The 2nd time try, hands is not horizontal.</t>
+  </si>
+  <si>
+    <t>The 3rd time try, hands is not horizontal.</t>
+  </si>
+  <si>
+    <t>The 4th time try, hands is not horizontal.</t>
+  </si>
+  <si>
+    <t>The 5th time try, hands is not horizontal.</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-22</t>
+  </si>
+  <si>
+    <t>The 1st time try, hands is not lower enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-31</t>
+  </si>
+  <si>
+    <t>2018-4-5-17-36</t>
+  </si>
+  <si>
+    <t>The 2nd time try, hands is not lower enough.</t>
+  </si>
+  <si>
+    <t>The 3rd time try, hands is not lower enough.</t>
+  </si>
+  <si>
+    <t>The 4th time try, hands is not lower enough.</t>
+  </si>
+  <si>
+    <t>2018-4-5-19-39</t>
+  </si>
+  <si>
     <t>1st right hand angle (H-close)</t>
   </si>
   <si>
@@ -223,13 +275,13 @@
     <t>average left hand angle (T-pose)</t>
   </si>
   <si>
-    <t>jane doe</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>2018-4-2-21-16</t>
+    <t>2018-4-5-16-57</t>
+  </si>
+  <si>
+    <t>The 1st time try, hands is not horizontal.</t>
+  </si>
+  <si>
+    <t>2018-4-5-16-58</t>
   </si>
   <si>
     <t>Max right bending angle</t>
@@ -244,6 +296,9 @@
     <t>Min left bending angle</t>
   </si>
   <si>
+    <t>2018-4-5-19-43</t>
+  </si>
+  <si>
     <t>Max rotation depth</t>
   </si>
   <si>
@@ -259,91 +314,7 @@
     <t>average hold time</t>
   </si>
   <si>
-    <t>Qi Chen</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-19</t>
-  </si>
-  <si>
-    <t>2018-3-19-19-56</t>
-  </si>
-  <si>
-    <t>2018-3-19-20-9</t>
-  </si>
-  <si>
-    <t>abc xcd</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>2018-3-27-15-35</t>
-  </si>
-  <si>
-    <t>The 3rd time try, is not deep enough.</t>
-  </si>
-  <si>
-    <t>The 4th time try, is not deep enough.</t>
-  </si>
-  <si>
-    <t>q q</t>
-  </si>
-  <si>
-    <t>2018-4-2-17-19</t>
-  </si>
-  <si>
-    <t>Did not do enough repetition.</t>
-  </si>
-  <si>
-    <t>2018-4-2-18-43</t>
-  </si>
-  <si>
-    <t>The 1st time try, is not deep enough.</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>2018-4-2-19-58</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-20</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-21</t>
-  </si>
-  <si>
-    <t>qi chen</t>
-  </si>
-  <si>
-    <t>2018-3-27-15-54</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-53</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-25</t>
-  </si>
-  <si>
-    <t>2018-3-15-21-52</t>
-  </si>
-  <si>
-    <t>2018-3-27-16-5</t>
+    <t>2018-4-5-18-20</t>
   </si>
 </sst>
 </file>
@@ -708,15 +679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:DT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,299 +711,1109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>43.863903362410447</v>
+        <v>44.202790880269319</v>
       </c>
       <c r="F2">
-        <v>77.037039205354858</v>
+        <v>69.594387373293955</v>
       </c>
       <c r="G2">
-        <v>57.349085926254247</v>
+        <v>52.374497310079583</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>19.31018518518518</v>
+        <v>14.8890801060231</v>
       </c>
       <c r="F3">
-        <v>45.258243604549243</v>
+        <v>41.327067147613747</v>
       </c>
       <c r="G3">
-        <v>36.230353998751937</v>
+        <v>32.475761452382081</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>31.214292621117039</v>
+        <v>4.4328979233327104</v>
       </c>
       <c r="F4">
-        <v>48.781046346558377</v>
+        <v>64.462367595439986</v>
       </c>
       <c r="G4">
-        <v>40.687331439194523</v>
+        <v>29.389325651035239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>37.417343702808807</v>
+        <v>10.24394631690229</v>
       </c>
       <c r="F5">
-        <v>63.196136975718503</v>
+        <v>50.412830239556577</v>
       </c>
       <c r="G5">
-        <v>53.709669402980353</v>
+        <v>30.455698365389811</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>14.52880855336995</v>
+        <v>13.07753326296754</v>
       </c>
       <c r="F6">
-        <v>57.857716573407203</v>
+        <v>77.675660228760165</v>
       </c>
       <c r="G6">
-        <v>35.188492231941012</v>
+        <v>44.846549930025191</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>27.51018137920024</v>
+        <v>12.176712271973461</v>
       </c>
       <c r="F7">
-        <v>81.057995136038883</v>
+        <v>74.000471387130773</v>
       </c>
       <c r="G7">
-        <v>58.954906383292993</v>
+        <v>42.235607103425117</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>27.51018137920024</v>
+        <v>23.538366484293771</v>
       </c>
       <c r="F8">
-        <v>81.057995136038883</v>
+        <v>139.26964920989491</v>
       </c>
       <c r="G8">
-        <v>58.954906383292993</v>
+        <v>56.802461802498591</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>27.51018137920024</v>
+        <v>16.004502018043681</v>
       </c>
       <c r="F9">
-        <v>81.057995136038883</v>
+        <v>48.176717948717943</v>
       </c>
       <c r="G9">
-        <v>58.954906383292993</v>
+        <v>32.754608065710492</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10">
-        <v>27.51018137920024</v>
-      </c>
-      <c r="F10">
-        <v>81.057995136038883</v>
-      </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>27.51018137920024</v>
-      </c>
-      <c r="F11">
-        <v>81.057995136038883</v>
-      </c>
-      <c r="G11">
-        <v>58.954906383292993</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12">
-        <v>35.500772052928909</v>
-      </c>
-      <c r="F12">
-        <v>58.666538784572822</v>
-      </c>
-      <c r="G12">
-        <v>45.301400405519537</v>
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1044,11 +1823,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1075,36 +1852,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>46.810156068017683</v>
-      </c>
-      <c r="F2">
-        <v>70.992275297769169</v>
-      </c>
-      <c r="G2">
-        <v>59.139053128191037</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1114,15 +1865,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,237 +1887,725 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>19.13118543529918</v>
       </c>
       <c r="F2">
-        <v>47.763934779208448</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
+        <v>153.93736245195501</v>
+      </c>
+      <c r="G2">
+        <v>19.037775305557862</v>
       </c>
       <c r="H2">
-        <v>163.649948411781</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
+        <v>156.1251142427821</v>
+      </c>
+      <c r="I2">
+        <v>39.816096751938119</v>
       </c>
       <c r="J2">
-        <v>48.695573004719527</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
+        <v>155.13313462832761</v>
+      </c>
+      <c r="K2">
+        <v>22.497529600088491</v>
       </c>
       <c r="L2">
-        <v>163.6656187197238</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
+        <v>155.63919694037219</v>
+      </c>
+      <c r="M2">
+        <v>25.120646773220919</v>
       </c>
       <c r="N2">
-        <v>51.976442216937222</v>
-      </c>
-      <c r="O2" t="s">
-        <v>96</v>
+        <v>155.2087020658592</v>
+      </c>
+      <c r="O2">
+        <v>18.60879889517815</v>
       </c>
       <c r="P2">
-        <v>159.81564106881541</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>95</v>
+        <v>157.46126388764191</v>
+      </c>
+      <c r="Q2">
+        <v>19.955803610310959</v>
       </c>
       <c r="R2">
-        <v>49.474529015770599</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
+        <v>157.8347387662767</v>
+      </c>
+      <c r="S2">
+        <v>38.421040046372447</v>
       </c>
       <c r="T2">
-        <v>166.98843865116049</v>
+        <v>154.61108044559029</v>
       </c>
       <c r="U2">
-        <v>163.52991171287019</v>
+        <v>27.643773790754089</v>
       </c>
       <c r="V2">
-        <v>49.477619754158951</v>
-      </c>
-      <c r="W2" t="s">
-        <v>95</v>
+        <v>156.62641344349481</v>
+      </c>
+      <c r="W2">
+        <v>26.15735408565391</v>
       </c>
       <c r="X2">
-        <v>40.30816231532291</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2">
-        <v>166.64719144497559</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2">
-        <v>43.902409446999961</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2">
-        <v>163.69480010722651</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2">
-        <v>41.286944216254227</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH2">
-        <v>168.32504243464021</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ2">
-        <v>44.899621835891487</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2">
-        <v>169.78089879039851</v>
-      </c>
-      <c r="AM2">
-        <v>167.1119831943102</v>
-      </c>
-      <c r="AN2">
-        <v>42.599284453617138</v>
+        <v>156.6333741357509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>14.53417277170924</v>
+      </c>
+      <c r="F3">
+        <v>155.58304612688769</v>
+      </c>
+      <c r="G3">
+        <v>24.71637370698496</v>
+      </c>
+      <c r="H3">
+        <v>152.54699434192409</v>
+      </c>
+      <c r="I3">
+        <v>38.232094236119799</v>
+      </c>
+      <c r="J3">
+        <v>153.49968915516729</v>
+      </c>
+      <c r="K3">
+        <v>20.584527638322982</v>
+      </c>
+      <c r="L3">
+        <v>148.718275261706</v>
+      </c>
+      <c r="M3">
+        <v>24.516792088284241</v>
+      </c>
+      <c r="N3">
+        <v>152.5870012214213</v>
+      </c>
+      <c r="O3">
+        <v>20.913471654640539</v>
+      </c>
+      <c r="P3">
+        <v>159.85622344201099</v>
+      </c>
+      <c r="Q3">
+        <v>23.838798086559962</v>
+      </c>
+      <c r="R3">
+        <v>155.06338679745039</v>
+      </c>
+      <c r="S3">
+        <v>36.191770631744191</v>
+      </c>
+      <c r="T3">
+        <v>157.5981551951499</v>
+      </c>
+      <c r="U3">
+        <v>19.544775192748919</v>
+      </c>
+      <c r="V3">
+        <v>148.39194864059269</v>
+      </c>
+      <c r="W3">
+        <v>25.1222038914234</v>
+      </c>
+      <c r="X3">
+        <v>155.22742851880099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>15.74494735474072</v>
+      </c>
+      <c r="F4">
+        <v>150.22434675536749</v>
+      </c>
+      <c r="G4">
+        <v>26.637434029116491</v>
+      </c>
+      <c r="H4">
+        <v>154.17935550802031</v>
+      </c>
+      <c r="I4">
+        <v>36.083065926430223</v>
+      </c>
+      <c r="J4">
+        <v>148.89133343399271</v>
+      </c>
+      <c r="K4">
+        <v>21.850646196067931</v>
+      </c>
+      <c r="L4">
+        <v>143.60011143827799</v>
+      </c>
+      <c r="M4">
+        <v>25.07902337658884</v>
+      </c>
+      <c r="N4">
+        <v>149.22378678391459</v>
+      </c>
+      <c r="O4">
+        <v>15.95664826230958</v>
+      </c>
+      <c r="P4">
+        <v>149.51132675880581</v>
+      </c>
+      <c r="Q4">
+        <v>25.01358654240245</v>
+      </c>
+      <c r="R4">
+        <v>157.57997367893691</v>
+      </c>
+      <c r="S4">
+        <v>36.401292555227229</v>
+      </c>
+      <c r="T4">
+        <v>155.95668502769689</v>
+      </c>
+      <c r="U4">
+        <v>19.35107329198518</v>
+      </c>
+      <c r="V4">
+        <v>152.39449765182789</v>
+      </c>
+      <c r="W4">
+        <v>24.180650162981109</v>
+      </c>
+      <c r="X4">
+        <v>153.86062077931689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>20.563294011492641</v>
+      </c>
+      <c r="F5">
+        <v>150.12583879953519</v>
+      </c>
+      <c r="G5">
+        <v>26.570844004351461</v>
+      </c>
+      <c r="H5">
+        <v>161.89854923173209</v>
+      </c>
+      <c r="I5">
+        <v>27.950501656253849</v>
+      </c>
+      <c r="J5">
+        <v>159.8014637863111</v>
+      </c>
+      <c r="K5">
+        <v>24.961645331744212</v>
+      </c>
+      <c r="L5">
+        <v>159.7618021851506</v>
+      </c>
+      <c r="M5">
+        <v>25.011571250960539</v>
+      </c>
+      <c r="N5">
+        <v>157.89691350068219</v>
+      </c>
+      <c r="O5">
+        <v>20.317285057250199</v>
+      </c>
+      <c r="P5">
+        <v>150.2633142600377</v>
+      </c>
+      <c r="Q5">
+        <v>25.085281349546459</v>
+      </c>
+      <c r="R5">
+        <v>156.36522066363801</v>
+      </c>
+      <c r="S5">
+        <v>26.106532066350319</v>
+      </c>
+      <c r="T5">
+        <v>155.80426203382831</v>
+      </c>
+      <c r="U5">
+        <v>26.282426174500131</v>
+      </c>
+      <c r="V5">
+        <v>154.44803948094679</v>
+      </c>
+      <c r="W5">
+        <v>24.447881161911781</v>
+      </c>
+      <c r="X5">
+        <v>154.22020910961271</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>65.429022666321757</v>
+      </c>
+      <c r="F6">
+        <v>156.33860136543711</v>
+      </c>
+      <c r="G6">
+        <v>27.81644957910212</v>
+      </c>
+      <c r="H6">
+        <v>160.00259786962729</v>
+      </c>
+      <c r="I6">
+        <v>24.74834116057389</v>
+      </c>
+      <c r="J6">
+        <v>166.3432132910485</v>
+      </c>
+      <c r="K6">
+        <v>29.35831876857311</v>
+      </c>
+      <c r="L6">
+        <v>161.4028702480262</v>
+      </c>
+      <c r="M6">
+        <v>36.838033043642717</v>
+      </c>
+      <c r="N6">
+        <v>161.02182069353481</v>
+      </c>
+      <c r="O6">
+        <v>57.451136316640188</v>
+      </c>
+      <c r="P6">
+        <v>157.51281629802239</v>
+      </c>
+      <c r="Q6">
+        <v>25.455513998324388</v>
+      </c>
+      <c r="R6">
+        <v>158.90065581232071</v>
+      </c>
+      <c r="S6">
+        <v>18.09156379087452</v>
+      </c>
+      <c r="T6">
+        <v>166.51620946887209</v>
+      </c>
+      <c r="U6">
+        <v>18.120266397355358</v>
+      </c>
+      <c r="V6">
+        <v>157.87581883669901</v>
+      </c>
+      <c r="W6">
+        <v>29.779620125798619</v>
+      </c>
+      <c r="X6">
+        <v>160.20137510397851</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>50.245985246633673</v>
+      </c>
+      <c r="F7">
+        <v>158.79969521561651</v>
+      </c>
+      <c r="G7">
+        <v>21.407965809236909</v>
+      </c>
+      <c r="H7">
+        <v>160.31033888582411</v>
+      </c>
+      <c r="I7">
+        <v>22.452639283319051</v>
+      </c>
+      <c r="J7">
+        <v>157.6124803362043</v>
+      </c>
+      <c r="K7">
+        <v>23.0292109951267</v>
+      </c>
+      <c r="L7">
+        <v>75.205108707010638</v>
+      </c>
+      <c r="M7">
+        <v>29.283950333579082</v>
+      </c>
+      <c r="N7">
+        <v>137.98190578616391</v>
+      </c>
+      <c r="O7">
+        <v>34.503205734495367</v>
+      </c>
+      <c r="P7">
+        <v>159.6916936050082</v>
+      </c>
+      <c r="Q7">
+        <v>21.22792799676148</v>
+      </c>
+      <c r="R7">
+        <v>159.5866901003869</v>
+      </c>
+      <c r="S7">
+        <v>21.06450099761382</v>
+      </c>
+      <c r="T7">
+        <v>159.64027174208451</v>
+      </c>
+      <c r="U7">
+        <v>21.300906497819579</v>
+      </c>
+      <c r="V7">
+        <v>70.710719120913765</v>
+      </c>
+      <c r="W7">
+        <v>24.524135306672559</v>
+      </c>
+      <c r="X7">
+        <v>137.40734364209831</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>49.204688534577059</v>
+      </c>
+      <c r="F8">
+        <v>160.3389775149692</v>
+      </c>
+      <c r="G8">
+        <v>37.055800421364708</v>
+      </c>
+      <c r="H8">
+        <v>163.32991608741159</v>
+      </c>
+      <c r="I8">
+        <v>77.807503730936531</v>
+      </c>
+      <c r="J8">
+        <v>167.510395711538</v>
+      </c>
+      <c r="K8">
+        <v>48.662653419067837</v>
+      </c>
+      <c r="L8">
+        <v>158.83429858725631</v>
+      </c>
+      <c r="M8">
+        <v>53.182661526486541</v>
+      </c>
+      <c r="N8">
+        <v>162.50339697529381</v>
+      </c>
+      <c r="O8">
+        <v>42.004093699775723</v>
+      </c>
+      <c r="P8">
+        <v>158.7284451394938</v>
+      </c>
+      <c r="Q8">
+        <v>31.434736622522049</v>
+      </c>
+      <c r="R8">
+        <v>160.45046933786179</v>
+      </c>
+      <c r="S8">
+        <v>79.060736778989778</v>
+      </c>
+      <c r="T8">
+        <v>159.6064596213462</v>
+      </c>
+      <c r="U8">
+        <v>40.769184433484213</v>
+      </c>
+      <c r="V8">
+        <v>158.24341438669501</v>
+      </c>
+      <c r="W8">
+        <v>48.317187883692938</v>
+      </c>
+      <c r="X8">
+        <v>159.25719712134921</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>48.687869489646417</v>
+      </c>
+      <c r="F9">
+        <v>164.2464351306815</v>
+      </c>
+      <c r="G9">
+        <v>43.096756074941872</v>
+      </c>
+      <c r="H9">
+        <v>161.59393071855459</v>
+      </c>
+      <c r="I9">
+        <v>59.574931519562448</v>
+      </c>
+      <c r="J9">
+        <v>162.72998100049301</v>
+      </c>
+      <c r="K9">
+        <v>49.892072339022079</v>
+      </c>
+      <c r="L9">
+        <v>151.71547923090961</v>
+      </c>
+      <c r="M9">
+        <v>50.312907355793207</v>
+      </c>
+      <c r="N9">
+        <v>160.0714565201597</v>
+      </c>
+      <c r="O9">
+        <v>42.264758902961873</v>
+      </c>
+      <c r="P9">
+        <v>165.73383963581969</v>
+      </c>
+      <c r="Q9">
+        <v>42.326146025543089</v>
+      </c>
+      <c r="R9">
+        <v>167.34272633533089</v>
+      </c>
+      <c r="S9">
+        <v>45.31571792699657</v>
+      </c>
+      <c r="T9">
+        <v>166.91837548403569</v>
+      </c>
+      <c r="U9">
+        <v>44.11143480768127</v>
+      </c>
+      <c r="V9">
+        <v>156.4686762489259</v>
+      </c>
+      <c r="W9">
+        <v>43.504514415795697</v>
+      </c>
+      <c r="X9">
+        <v>164.1159044260281</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1376,23 +2615,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,141 +2637,230 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>92.012121404571644</v>
+        <v>79.483543363777784</v>
       </c>
       <c r="F2">
-        <v>89.838329375978319</v>
+        <v>87.827111826776076</v>
       </c>
       <c r="G2">
-        <v>91.863755980084633</v>
+        <v>75.336864742490803</v>
       </c>
       <c r="H2">
-        <v>88.685376080035823</v>
+        <v>89.797931074929181</v>
       </c>
       <c r="I2">
-        <v>90.813999381355373</v>
+        <v>92.207428693676633</v>
       </c>
       <c r="J2">
-        <v>91.359186636504958</v>
+        <v>88.441630158818441</v>
       </c>
       <c r="K2">
-        <v>89.286423824171365</v>
+        <v>84.092899025071247</v>
       </c>
       <c r="L2">
-        <v>92.508124523422296</v>
+        <v>88.683119894986049</v>
       </c>
       <c r="M2">
-        <v>90.994075147545757</v>
+        <v>82.78018395625412</v>
       </c>
       <c r="N2">
-        <v>90.597754153985349</v>
+        <v>88.687448238877437</v>
       </c>
       <c r="O2">
-        <v>92.55098280962801</v>
+        <v>83.325428963402175</v>
       </c>
       <c r="P2">
-        <v>89.54978831253392</v>
+        <v>91.026708405340614</v>
       </c>
       <c r="Q2">
-        <v>90.941739257394644</v>
+        <v>84.170239910790514</v>
       </c>
       <c r="R2">
-        <v>88.660814972320978</v>
+        <v>92.761001405172635</v>
       </c>
       <c r="S2">
-        <v>93.39784920868783</v>
+        <v>97.459386399194443</v>
       </c>
       <c r="T2">
-        <v>92.030387016433025</v>
+        <v>91.143277064972835</v>
       </c>
       <c r="U2">
-        <v>90.329133871140158</v>
+        <v>90.190697542916439</v>
       </c>
       <c r="V2">
-        <v>93.060224351266299</v>
+        <v>90.373586812342396</v>
       </c>
       <c r="W2">
-        <v>91.804926286712657</v>
+        <v>88.786438204075893</v>
       </c>
       <c r="X2">
-        <v>90.825303663138556</v>
+        <v>91.326143421957127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>82.245302299684411</v>
+      </c>
+      <c r="F3">
+        <v>88.893459148953028</v>
+      </c>
+      <c r="G3">
+        <v>78.602729981240202</v>
+      </c>
+      <c r="H3">
+        <v>89.265719503472525</v>
+      </c>
+      <c r="I3">
+        <v>82.54208741343335</v>
+      </c>
+      <c r="J3">
+        <v>90.23046264073389</v>
+      </c>
+      <c r="K3">
+        <v>60.870815498658189</v>
+      </c>
+      <c r="L3">
+        <v>90.286954762697007</v>
+      </c>
+      <c r="M3">
+        <v>76.065233798254042</v>
+      </c>
+      <c r="N3">
+        <v>89.669149013964116</v>
+      </c>
+      <c r="O3">
+        <v>80.755600591675574</v>
+      </c>
+      <c r="P3">
+        <v>90.927902396346724</v>
+      </c>
+      <c r="Q3">
+        <v>78.676501906319757</v>
+      </c>
+      <c r="R3">
+        <v>90.201511851545234</v>
+      </c>
+      <c r="S3">
+        <v>81.841899274666929</v>
+      </c>
+      <c r="T3">
+        <v>89.532830477080111</v>
+      </c>
+      <c r="U3">
+        <v>61.079904139061469</v>
+      </c>
+      <c r="V3">
+        <v>79.324259691462203</v>
+      </c>
+      <c r="W3">
+        <v>75.588476477930939</v>
+      </c>
+      <c r="X3">
+        <v>87.496626104108572</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1550,11 +2870,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1572,16 +2890,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1589,54 +2907,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>61.502351863089373</v>
+        <v>56.458083638446212</v>
       </c>
       <c r="F2">
-        <v>53.815059404314219</v>
+        <v>39.405954729255782</v>
       </c>
       <c r="G2">
-        <v>61.903738236579827</v>
+        <v>64.440402647650643</v>
       </c>
       <c r="H2">
-        <v>44.039116872781257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>80.566315239740476</v>
-      </c>
-      <c r="F3">
-        <v>67.995557908012358</v>
-      </c>
-      <c r="G3">
-        <v>64.341550811857431</v>
-      </c>
-      <c r="H3">
-        <v>52.311170505424393</v>
+        <v>54.213811194391837</v>
       </c>
     </row>
   </sheetData>
@@ -1646,16 +2938,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1671,33 +2958,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1707,18 +2974,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1734,13 +2994,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1748,71 +3008,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3">
-        <v>3.5333333333333332</v>
-      </c>
-      <c r="F3">
-        <v>2.0666666666666669</v>
-      </c>
-      <c r="G3">
-        <v>2.6733333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4">
-        <v>4.5666666666666664</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2.3555555555555561</v>
+        <v>1.7666666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/UI2/output/log.xlsx
+++ b/UI2/output/log.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\K_project\UI2\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192CB87C-F24D-4DC4-B7C0-4B9243016EBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="exercise 1" sheetId="1" r:id="rId1"/>
-    <sheet name="exercise 2" sheetId="2" r:id="rId2"/>
-    <sheet name="exercise 3" sheetId="3" r:id="rId3"/>
-    <sheet name="exercise 4" sheetId="4" r:id="rId4"/>
-    <sheet name="exercise 5" sheetId="5" r:id="rId5"/>
-    <sheet name="exercise 6" sheetId="6" r:id="rId6"/>
-    <sheet name="exercise 7" sheetId="7" r:id="rId7"/>
-  </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="2"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="exercise 1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="exercise 2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="exercise 3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="exercise 4" sheetId="4" r:id="rId4"/>
+    <s:sheet name="exercise 5" sheetId="5" r:id="rId5"/>
+    <s:sheet name="exercise 6" sheetId="6" r:id="rId6"/>
+    <s:sheet name="exercise 7" sheetId="7" r:id="rId7"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -213,6 +206,24 @@
   </si>
   <si>
     <t>2018-4-5-19-39</t>
+  </si>
+  <si>
+    <t>2018-4-9-15-4</t>
+  </si>
+  <si>
+    <t>2018-4-9-15-47</t>
+  </si>
+  <si>
+    <t>2018-4-9-16-46</t>
+  </si>
+  <si>
+    <t>The 2nd time try, hands is not straight.</t>
+  </si>
+  <si>
+    <t>2018-4-9-17-34</t>
+  </si>
+  <si>
+    <t>The 3rd time try, hands is not straight.</t>
   </si>
   <si>
     <t>1st right hand angle (H-close)</t>
@@ -320,26 +331,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -370,27 +382,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="一般" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -678,14 +682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:124">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -724,14 +734,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>44.202790880269319</v>
-      </c>
-      <c r="F2">
-        <v>69.594387373293955</v>
-      </c>
-      <c r="G2">
-        <v>52.374497310079583</v>
+      <c r="E2" t="n">
+        <v>44.20279088026932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>69.59438737329396</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52.37449731007958</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -740,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:124">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -753,14 +763,14 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>14.8890801060231</v>
       </c>
-      <c r="F3">
-        <v>41.327067147613747</v>
-      </c>
-      <c r="G3">
-        <v>32.475761452382081</v>
+      <c r="F3" t="n">
+        <v>41.32706714761375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.47576145238208</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -769,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -782,14 +792,14 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>4.4328979233327104</v>
-      </c>
-      <c r="F4">
-        <v>64.462367595439986</v>
-      </c>
-      <c r="G4">
-        <v>29.389325651035239</v>
+      <c r="E4" t="n">
+        <v>4.43289792333271</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64.46236759543999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.38932565103524</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -801,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -814,14 +824,14 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>10.24394631690229</v>
       </c>
-      <c r="F5">
-        <v>50.412830239556577</v>
-      </c>
-      <c r="G5">
-        <v>30.455698365389811</v>
+      <c r="F5" t="n">
+        <v>50.41283023955658</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.45569836538981</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -866,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -879,14 +889,14 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>13.07753326296754</v>
       </c>
-      <c r="F6">
-        <v>77.675660228760165</v>
-      </c>
-      <c r="G6">
-        <v>44.846549930025191</v>
+      <c r="F6" t="n">
+        <v>77.67566022876017</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.84654993002519</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1201,7 +1211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1214,14 +1224,14 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>12.176712271973461</v>
-      </c>
-      <c r="F7">
-        <v>74.000471387130773</v>
-      </c>
-      <c r="G7">
-        <v>42.235607103425117</v>
+      <c r="E7" t="n">
+        <v>12.17671227197346</v>
+      </c>
+      <c r="F7" t="n">
+        <v>74.00047138713077</v>
+      </c>
+      <c r="G7" t="n">
+        <v>42.23560710342512</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1575,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1588,14 +1598,14 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>23.538366484293771</v>
-      </c>
-      <c r="F8">
-        <v>139.26964920989491</v>
-      </c>
-      <c r="G8">
-        <v>56.802461802498591</v>
+      <c r="E8" t="n">
+        <v>23.53836648429377</v>
+      </c>
+      <c r="F8" t="n">
+        <v>139.2696492098949</v>
+      </c>
+      <c r="G8" t="n">
+        <v>56.80246180249859</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1784,7 +1794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1797,14 +1807,14 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
-        <v>16.004502018043681</v>
-      </c>
-      <c r="F9">
-        <v>48.176717948717943</v>
-      </c>
-      <c r="G9">
-        <v>32.754608065710492</v>
+      <c r="E9" t="n">
+        <v>16.00450201804368</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48.17671794871794</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.75460806571049</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1817,19 +1827,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,21 +1875,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1963,68 +1983,68 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>19.13118543529918</v>
       </c>
-      <c r="F2">
-        <v>153.93736245195501</v>
-      </c>
-      <c r="G2">
-        <v>19.037775305557862</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="n">
+        <v>153.937362451955</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.03777530555786</v>
+      </c>
+      <c r="H2" t="n">
         <v>156.1251142427821</v>
       </c>
-      <c r="I2">
-        <v>39.816096751938119</v>
-      </c>
-      <c r="J2">
-        <v>155.13313462832761</v>
-      </c>
-      <c r="K2">
-        <v>22.497529600088491</v>
-      </c>
-      <c r="L2">
-        <v>155.63919694037219</v>
-      </c>
-      <c r="M2">
-        <v>25.120646773220919</v>
-      </c>
-      <c r="N2">
+      <c r="I2" t="n">
+        <v>39.81609675193812</v>
+      </c>
+      <c r="J2" t="n">
+        <v>155.1331346283276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.49752960008849</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155.6391969403722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25.12064677322092</v>
+      </c>
+      <c r="N2" t="n">
         <v>155.2087020658592</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>18.60879889517815</v>
       </c>
-      <c r="P2">
-        <v>157.46126388764191</v>
-      </c>
-      <c r="Q2">
-        <v>19.955803610310959</v>
-      </c>
-      <c r="R2">
+      <c r="P2" t="n">
+        <v>157.4612638876419</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19.95580361031096</v>
+      </c>
+      <c r="R2" t="n">
         <v>157.8347387662767</v>
       </c>
-      <c r="S2">
-        <v>38.421040046372447</v>
-      </c>
-      <c r="T2">
-        <v>154.61108044559029</v>
-      </c>
-      <c r="U2">
-        <v>27.643773790754089</v>
-      </c>
-      <c r="V2">
-        <v>156.62641344349481</v>
-      </c>
-      <c r="W2">
+      <c r="S2" t="n">
+        <v>38.42104004637245</v>
+      </c>
+      <c r="T2" t="n">
+        <v>154.6110804455903</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.64377379075409</v>
+      </c>
+      <c r="V2" t="n">
+        <v>156.6264134434948</v>
+      </c>
+      <c r="W2" t="n">
         <v>26.15735408565391</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>156.6333741357509</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2037,68 +2057,68 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>14.53417277170924</v>
       </c>
-      <c r="F3">
-        <v>155.58304612688769</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>155.5830461268877</v>
+      </c>
+      <c r="G3" t="n">
         <v>24.71637370698496</v>
       </c>
-      <c r="H3">
-        <v>152.54699434192409</v>
-      </c>
-      <c r="I3">
-        <v>38.232094236119799</v>
-      </c>
-      <c r="J3">
-        <v>153.49968915516729</v>
-      </c>
-      <c r="K3">
-        <v>20.584527638322982</v>
-      </c>
-      <c r="L3">
+      <c r="H3" t="n">
+        <v>152.5469943419241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.2320942361198</v>
+      </c>
+      <c r="J3" t="n">
+        <v>153.4996891551673</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.58452763832298</v>
+      </c>
+      <c r="L3" t="n">
         <v>148.718275261706</v>
       </c>
-      <c r="M3">
-        <v>24.516792088284241</v>
-      </c>
-      <c r="N3">
+      <c r="M3" t="n">
+        <v>24.51679208828424</v>
+      </c>
+      <c r="N3" t="n">
         <v>152.5870012214213</v>
       </c>
-      <c r="O3">
-        <v>20.913471654640539</v>
-      </c>
-      <c r="P3">
-        <v>159.85622344201099</v>
-      </c>
-      <c r="Q3">
-        <v>23.838798086559962</v>
-      </c>
-      <c r="R3">
-        <v>155.06338679745039</v>
-      </c>
-      <c r="S3">
-        <v>36.191770631744191</v>
-      </c>
-      <c r="T3">
+      <c r="O3" t="n">
+        <v>20.91347165464054</v>
+      </c>
+      <c r="P3" t="n">
+        <v>159.856223442011</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23.83879808655996</v>
+      </c>
+      <c r="R3" t="n">
+        <v>155.0633867974504</v>
+      </c>
+      <c r="S3" t="n">
+        <v>36.19177063174419</v>
+      </c>
+      <c r="T3" t="n">
         <v>157.5981551951499</v>
       </c>
-      <c r="U3">
-        <v>19.544775192748919</v>
-      </c>
-      <c r="V3">
-        <v>148.39194864059269</v>
-      </c>
-      <c r="W3">
+      <c r="U3" t="n">
+        <v>19.54477519274892</v>
+      </c>
+      <c r="V3" t="n">
+        <v>148.3919486405927</v>
+      </c>
+      <c r="W3" t="n">
         <v>25.1222038914234</v>
       </c>
-      <c r="X3">
-        <v>155.22742851880099</v>
+      <c r="X3" t="n">
+        <v>155.227428518801</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2111,68 +2131,68 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>15.74494735474072</v>
       </c>
-      <c r="F4">
-        <v>150.22434675536749</v>
-      </c>
-      <c r="G4">
-        <v>26.637434029116491</v>
-      </c>
-      <c r="H4">
-        <v>154.17935550802031</v>
-      </c>
-      <c r="I4">
-        <v>36.083065926430223</v>
-      </c>
-      <c r="J4">
-        <v>148.89133343399271</v>
-      </c>
-      <c r="K4">
-        <v>21.850646196067931</v>
-      </c>
-      <c r="L4">
-        <v>143.60011143827799</v>
-      </c>
-      <c r="M4">
+      <c r="F4" t="n">
+        <v>150.2243467553675</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.63743402911649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>154.1793555080203</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36.08306592643022</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148.8913334339927</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.85064619606793</v>
+      </c>
+      <c r="L4" t="n">
+        <v>143.600111438278</v>
+      </c>
+      <c r="M4" t="n">
         <v>25.07902337658884</v>
       </c>
-      <c r="N4">
-        <v>149.22378678391459</v>
-      </c>
-      <c r="O4">
+      <c r="N4" t="n">
+        <v>149.2237867839146</v>
+      </c>
+      <c r="O4" t="n">
         <v>15.95664826230958</v>
       </c>
-      <c r="P4">
-        <v>149.51132675880581</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" t="n">
+        <v>149.5113267588058</v>
+      </c>
+      <c r="Q4" t="n">
         <v>25.01358654240245</v>
       </c>
-      <c r="R4">
-        <v>157.57997367893691</v>
-      </c>
-      <c r="S4">
-        <v>36.401292555227229</v>
-      </c>
-      <c r="T4">
-        <v>155.95668502769689</v>
-      </c>
-      <c r="U4">
+      <c r="R4" t="n">
+        <v>157.5799736789369</v>
+      </c>
+      <c r="S4" t="n">
+        <v>36.40129255522723</v>
+      </c>
+      <c r="T4" t="n">
+        <v>155.9566850276969</v>
+      </c>
+      <c r="U4" t="n">
         <v>19.35107329198518</v>
       </c>
-      <c r="V4">
-        <v>152.39449765182789</v>
-      </c>
-      <c r="W4">
-        <v>24.180650162981109</v>
-      </c>
-      <c r="X4">
-        <v>153.86062077931689</v>
+      <c r="V4" t="n">
+        <v>152.3944976518279</v>
+      </c>
+      <c r="W4" t="n">
+        <v>24.18065016298111</v>
+      </c>
+      <c r="X4" t="n">
+        <v>153.8606207793169</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2185,65 +2205,65 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5">
-        <v>20.563294011492641</v>
-      </c>
-      <c r="F5">
-        <v>150.12583879953519</v>
-      </c>
-      <c r="G5">
-        <v>26.570844004351461</v>
-      </c>
-      <c r="H5">
-        <v>161.89854923173209</v>
-      </c>
-      <c r="I5">
-        <v>27.950501656253849</v>
-      </c>
-      <c r="J5">
+      <c r="E5" t="n">
+        <v>20.56329401149264</v>
+      </c>
+      <c r="F5" t="n">
+        <v>150.1258387995352</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.57084400435146</v>
+      </c>
+      <c r="H5" t="n">
+        <v>161.8985492317321</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27.95050165625385</v>
+      </c>
+      <c r="J5" t="n">
         <v>159.8014637863111</v>
       </c>
-      <c r="K5">
-        <v>24.961645331744212</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>24.96164533174421</v>
+      </c>
+      <c r="L5" t="n">
         <v>159.7618021851506</v>
       </c>
-      <c r="M5">
-        <v>25.011571250960539</v>
-      </c>
-      <c r="N5">
-        <v>157.89691350068219</v>
-      </c>
-      <c r="O5">
-        <v>20.317285057250199</v>
-      </c>
-      <c r="P5">
+      <c r="M5" t="n">
+        <v>25.01157125096054</v>
+      </c>
+      <c r="N5" t="n">
+        <v>157.8969135006822</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20.3172850572502</v>
+      </c>
+      <c r="P5" t="n">
         <v>150.2633142600377</v>
       </c>
-      <c r="Q5">
-        <v>25.085281349546459</v>
-      </c>
-      <c r="R5">
-        <v>156.36522066363801</v>
-      </c>
-      <c r="S5">
-        <v>26.106532066350319</v>
-      </c>
-      <c r="T5">
-        <v>155.80426203382831</v>
-      </c>
-      <c r="U5">
-        <v>26.282426174500131</v>
-      </c>
-      <c r="V5">
-        <v>154.44803948094679</v>
-      </c>
-      <c r="W5">
-        <v>24.447881161911781</v>
-      </c>
-      <c r="X5">
-        <v>154.22020910961271</v>
+      <c r="Q5" t="n">
+        <v>25.08528134954646</v>
+      </c>
+      <c r="R5" t="n">
+        <v>156.365220663638</v>
+      </c>
+      <c r="S5" t="n">
+        <v>26.10653206635032</v>
+      </c>
+      <c r="T5" t="n">
+        <v>155.8042620338283</v>
+      </c>
+      <c r="U5" t="n">
+        <v>26.28242617450013</v>
+      </c>
+      <c r="V5" t="n">
+        <v>154.4480394809468</v>
+      </c>
+      <c r="W5" t="n">
+        <v>24.44788116191178</v>
+      </c>
+      <c r="X5" t="n">
+        <v>154.2202091096127</v>
       </c>
       <c r="Y5" t="s">
         <v>50</v>
@@ -2258,7 +2278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2271,65 +2291,65 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6">
-        <v>65.429022666321757</v>
-      </c>
-      <c r="F6">
-        <v>156.33860136543711</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="n">
+        <v>65.42902266632176</v>
+      </c>
+      <c r="F6" t="n">
+        <v>156.3386013654371</v>
+      </c>
+      <c r="G6" t="n">
         <v>27.81644957910212</v>
       </c>
-      <c r="H6">
-        <v>160.00259786962729</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>160.0025978696273</v>
+      </c>
+      <c r="I6" t="n">
         <v>24.74834116057389</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>166.3432132910485</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>29.35831876857311</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>161.4028702480262</v>
       </c>
-      <c r="M6">
-        <v>36.838033043642717</v>
-      </c>
-      <c r="N6">
-        <v>161.02182069353481</v>
-      </c>
-      <c r="O6">
-        <v>57.451136316640188</v>
-      </c>
-      <c r="P6">
-        <v>157.51281629802239</v>
-      </c>
-      <c r="Q6">
-        <v>25.455513998324388</v>
-      </c>
-      <c r="R6">
-        <v>158.90065581232071</v>
-      </c>
-      <c r="S6">
+      <c r="M6" t="n">
+        <v>36.83803304364272</v>
+      </c>
+      <c r="N6" t="n">
+        <v>161.0218206935348</v>
+      </c>
+      <c r="O6" t="n">
+        <v>57.45113631664019</v>
+      </c>
+      <c r="P6" t="n">
+        <v>157.5128162980224</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25.45551399832439</v>
+      </c>
+      <c r="R6" t="n">
+        <v>158.9006558123207</v>
+      </c>
+      <c r="S6" t="n">
         <v>18.09156379087452</v>
       </c>
-      <c r="T6">
-        <v>166.51620946887209</v>
-      </c>
-      <c r="U6">
-        <v>18.120266397355358</v>
-      </c>
-      <c r="V6">
-        <v>157.87581883669901</v>
-      </c>
-      <c r="W6">
-        <v>29.779620125798619</v>
-      </c>
-      <c r="X6">
-        <v>160.20137510397851</v>
+      <c r="T6" t="n">
+        <v>166.5162094688721</v>
+      </c>
+      <c r="U6" t="n">
+        <v>18.12026639735536</v>
+      </c>
+      <c r="V6" t="n">
+        <v>157.875818836699</v>
+      </c>
+      <c r="W6" t="n">
+        <v>29.77962012579862</v>
+      </c>
+      <c r="X6" t="n">
+        <v>160.2013751039785</v>
       </c>
       <c r="Y6" t="s">
         <v>55</v>
@@ -2344,7 +2364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2357,65 +2377,65 @@
       <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="E7">
-        <v>50.245985246633673</v>
-      </c>
-      <c r="F7">
-        <v>158.79969521561651</v>
-      </c>
-      <c r="G7">
-        <v>21.407965809236909</v>
-      </c>
-      <c r="H7">
-        <v>160.31033888582411</v>
-      </c>
-      <c r="I7">
-        <v>22.452639283319051</v>
-      </c>
-      <c r="J7">
+      <c r="E7" t="n">
+        <v>50.24598524663367</v>
+      </c>
+      <c r="F7" t="n">
+        <v>158.7996952156165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.40796580923691</v>
+      </c>
+      <c r="H7" t="n">
+        <v>160.3103388858241</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.45263928331905</v>
+      </c>
+      <c r="J7" t="n">
         <v>157.6124803362043</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>23.0292109951267</v>
       </c>
-      <c r="L7">
-        <v>75.205108707010638</v>
-      </c>
-      <c r="M7">
-        <v>29.283950333579082</v>
-      </c>
-      <c r="N7">
-        <v>137.98190578616391</v>
-      </c>
-      <c r="O7">
-        <v>34.503205734495367</v>
-      </c>
-      <c r="P7">
+      <c r="L7" t="n">
+        <v>75.20510870701064</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29.28395033357908</v>
+      </c>
+      <c r="N7" t="n">
+        <v>137.9819057861639</v>
+      </c>
+      <c r="O7" t="n">
+        <v>34.50320573449537</v>
+      </c>
+      <c r="P7" t="n">
         <v>159.6916936050082</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>21.22792799676148</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>159.5866901003869</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>21.06450099761382</v>
       </c>
-      <c r="T7">
-        <v>159.64027174208451</v>
-      </c>
-      <c r="U7">
-        <v>21.300906497819579</v>
-      </c>
-      <c r="V7">
-        <v>70.710719120913765</v>
-      </c>
-      <c r="W7">
-        <v>24.524135306672559</v>
-      </c>
-      <c r="X7">
-        <v>137.40734364209831</v>
+      <c r="T7" t="n">
+        <v>159.6402717420845</v>
+      </c>
+      <c r="U7" t="n">
+        <v>21.30090649781958</v>
+      </c>
+      <c r="V7" t="n">
+        <v>70.71071912091377</v>
+      </c>
+      <c r="W7" t="n">
+        <v>24.52413530667256</v>
+      </c>
+      <c r="X7" t="n">
+        <v>137.4073436420983</v>
       </c>
       <c r="Y7" t="s">
         <v>55</v>
@@ -2433,7 +2453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2446,65 +2466,65 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8">
-        <v>49.204688534577059</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>49.20468853457706</v>
+      </c>
+      <c r="F8" t="n">
         <v>160.3389775149692</v>
       </c>
-      <c r="G8">
-        <v>37.055800421364708</v>
-      </c>
-      <c r="H8">
-        <v>163.32991608741159</v>
-      </c>
-      <c r="I8">
-        <v>77.807503730936531</v>
-      </c>
-      <c r="J8">
+      <c r="G8" t="n">
+        <v>37.05580042136471</v>
+      </c>
+      <c r="H8" t="n">
+        <v>163.3299160874116</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77.80750373093653</v>
+      </c>
+      <c r="J8" t="n">
         <v>167.510395711538</v>
       </c>
-      <c r="K8">
-        <v>48.662653419067837</v>
-      </c>
-      <c r="L8">
-        <v>158.83429858725631</v>
-      </c>
-      <c r="M8">
-        <v>53.182661526486541</v>
-      </c>
-      <c r="N8">
-        <v>162.50339697529381</v>
-      </c>
-      <c r="O8">
-        <v>42.004093699775723</v>
-      </c>
-      <c r="P8">
+      <c r="K8" t="n">
+        <v>48.66265341906784</v>
+      </c>
+      <c r="L8" t="n">
+        <v>158.8342985872563</v>
+      </c>
+      <c r="M8" t="n">
+        <v>53.18266152648654</v>
+      </c>
+      <c r="N8" t="n">
+        <v>162.5033969752938</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42.00409369977572</v>
+      </c>
+      <c r="P8" t="n">
         <v>158.7284451394938</v>
       </c>
-      <c r="Q8">
-        <v>31.434736622522049</v>
-      </c>
-      <c r="R8">
-        <v>160.45046933786179</v>
-      </c>
-      <c r="S8">
-        <v>79.060736778989778</v>
-      </c>
-      <c r="T8">
+      <c r="Q8" t="n">
+        <v>31.43473662252205</v>
+      </c>
+      <c r="R8" t="n">
+        <v>160.4504693378618</v>
+      </c>
+      <c r="S8" t="n">
+        <v>79.06073677898978</v>
+      </c>
+      <c r="T8" t="n">
         <v>159.6064596213462</v>
       </c>
-      <c r="U8">
-        <v>40.769184433484213</v>
-      </c>
-      <c r="V8">
-        <v>158.24341438669501</v>
-      </c>
-      <c r="W8">
-        <v>48.317187883692938</v>
-      </c>
-      <c r="X8">
-        <v>159.25719712134921</v>
+      <c r="U8" t="n">
+        <v>40.76918443348421</v>
+      </c>
+      <c r="V8" t="n">
+        <v>158.243414386695</v>
+      </c>
+      <c r="W8" t="n">
+        <v>48.31718788369294</v>
+      </c>
+      <c r="X8" t="n">
+        <v>159.2571971213492</v>
       </c>
       <c r="Y8" t="s">
         <v>55</v>
@@ -2528,7 +2548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2541,64 +2561,64 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9">
-        <v>48.687869489646417</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>48.68786948964642</v>
+      </c>
+      <c r="F9" t="n">
         <v>164.2464351306815</v>
       </c>
-      <c r="G9">
-        <v>43.096756074941872</v>
-      </c>
-      <c r="H9">
-        <v>161.59393071855459</v>
-      </c>
-      <c r="I9">
-        <v>59.574931519562448</v>
-      </c>
-      <c r="J9">
-        <v>162.72998100049301</v>
-      </c>
-      <c r="K9">
-        <v>49.892072339022079</v>
-      </c>
-      <c r="L9">
-        <v>151.71547923090961</v>
-      </c>
-      <c r="M9">
-        <v>50.312907355793207</v>
-      </c>
-      <c r="N9">
+      <c r="G9" t="n">
+        <v>43.09675607494187</v>
+      </c>
+      <c r="H9" t="n">
+        <v>161.5939307185546</v>
+      </c>
+      <c r="I9" t="n">
+        <v>59.57493151956245</v>
+      </c>
+      <c r="J9" t="n">
+        <v>162.729981000493</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49.89207233902208</v>
+      </c>
+      <c r="L9" t="n">
+        <v>151.7154792309096</v>
+      </c>
+      <c r="M9" t="n">
+        <v>50.31290735579321</v>
+      </c>
+      <c r="N9" t="n">
         <v>160.0714565201597</v>
       </c>
-      <c r="O9">
-        <v>42.264758902961873</v>
-      </c>
-      <c r="P9">
-        <v>165.73383963581969</v>
-      </c>
-      <c r="Q9">
-        <v>42.326146025543089</v>
-      </c>
-      <c r="R9">
-        <v>167.34272633533089</v>
-      </c>
-      <c r="S9">
+      <c r="O9" t="n">
+        <v>42.26475890296187</v>
+      </c>
+      <c r="P9" t="n">
+        <v>165.7338396358197</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>42.32614602554309</v>
+      </c>
+      <c r="R9" t="n">
+        <v>167.3427263353309</v>
+      </c>
+      <c r="S9" t="n">
         <v>45.31571792699657</v>
       </c>
-      <c r="T9">
-        <v>166.91837548403569</v>
-      </c>
-      <c r="U9">
+      <c r="T9" t="n">
+        <v>166.9183754840357</v>
+      </c>
+      <c r="U9" t="n">
         <v>44.11143480768127</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>156.4686762489259</v>
       </c>
-      <c r="W9">
-        <v>43.504514415795697</v>
-      </c>
-      <c r="X9">
+      <c r="W9" t="n">
+        <v>43.5045144157957</v>
+      </c>
+      <c r="X9" t="n">
         <v>164.1159044260281</v>
       </c>
       <c r="Y9" t="s">
@@ -2608,22 +2628,346 @@
         <v>53</v>
       </c>
     </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41.29015931907953</v>
+      </c>
+      <c r="F10" t="n">
+        <v>155.1050408194847</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.4729919392171</v>
+      </c>
+      <c r="H10" t="n">
+        <v>153.8873142619284</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.02392249981284</v>
+      </c>
+      <c r="J10" t="n">
+        <v>167.5673056693469</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74.35710823460367</v>
+      </c>
+      <c r="L10" t="n">
+        <v>169.6067644108018</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48.53604549817828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>161.5416062903905</v>
+      </c>
+      <c r="O10" t="n">
+        <v>36.13872999783077</v>
+      </c>
+      <c r="P10" t="n">
+        <v>153.5179102647105</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>43.11023650435842</v>
+      </c>
+      <c r="R10" t="n">
+        <v>153.8987805370695</v>
+      </c>
+      <c r="S10" t="n">
+        <v>35.48468016557045</v>
+      </c>
+      <c r="T10" t="n">
+        <v>161.9249488180715</v>
+      </c>
+      <c r="U10" t="n">
+        <v>78.08532048336021</v>
+      </c>
+      <c r="V10" t="n">
+        <v>164.3234945110322</v>
+      </c>
+      <c r="W10" t="n">
+        <v>48.20474178777995</v>
+      </c>
+      <c r="X10" t="n">
+        <v>158.4162835327209</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.52520349441219</v>
+      </c>
+      <c r="F11" t="n">
+        <v>164.5168150763546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55.92813645942563</v>
+      </c>
+      <c r="H11" t="n">
+        <v>162.9366783587636</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.81771724096137</v>
+      </c>
+      <c r="J11" t="n">
+        <v>158.9195587573723</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.327020040783</v>
+      </c>
+      <c r="L11" t="n">
+        <v>158.7351257160445</v>
+      </c>
+      <c r="M11" t="n">
+        <v>44.89951930889555</v>
+      </c>
+      <c r="N11" t="n">
+        <v>161.2770444771338</v>
+      </c>
+      <c r="O11" t="n">
+        <v>38.48581907584586</v>
+      </c>
+      <c r="P11" t="n">
+        <v>163.6364022756476</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>52.8764300343847</v>
+      </c>
+      <c r="R11" t="n">
+        <v>165.1723314282603</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37.04746775313924</v>
+      </c>
+      <c r="T11" t="n">
+        <v>164.2474783725068</v>
+      </c>
+      <c r="U11" t="n">
+        <v>39.37945593223123</v>
+      </c>
+      <c r="V11" t="n">
+        <v>161.1060208860883</v>
+      </c>
+      <c r="W11" t="n">
+        <v>41.94729319890025</v>
+      </c>
+      <c r="X11" t="n">
+        <v>163.5405582406258</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>39.6799884135843</v>
+      </c>
+      <c r="F12" t="n">
+        <v>161.2861363892782</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.88953533562247</v>
+      </c>
+      <c r="H12" t="n">
+        <v>167.8534229695972</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34.80012702021224</v>
+      </c>
+      <c r="J12" t="n">
+        <v>163.9198508863201</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38.35553480429351</v>
+      </c>
+      <c r="L12" t="n">
+        <v>167.1614624861737</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35.93129639342813</v>
+      </c>
+      <c r="N12" t="n">
+        <v>165.0552181828423</v>
+      </c>
+      <c r="O12" t="n">
+        <v>39.22109688660528</v>
+      </c>
+      <c r="P12" t="n">
+        <v>157.8491087141673</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>27.96453194211622</v>
+      </c>
+      <c r="R12" t="n">
+        <v>162.9291523542691</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34.2348216289128</v>
+      </c>
+      <c r="T12" t="n">
+        <v>163.3107375287605</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42.14048485360357</v>
+      </c>
+      <c r="V12" t="n">
+        <v>161.8629601704464</v>
+      </c>
+      <c r="W12" t="n">
+        <v>35.89023382780947</v>
+      </c>
+      <c r="X12" t="n">
+        <v>161.4879896919108</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>36.9230401926055</v>
+      </c>
+      <c r="F13" t="n">
+        <v>161.6914877206882</v>
+      </c>
+      <c r="G13" t="n">
+        <v>44.39091826741485</v>
+      </c>
+      <c r="H13" t="n">
+        <v>158.1611386089151</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.25474958482847</v>
+      </c>
+      <c r="J13" t="n">
+        <v>162.9133522384752</v>
+      </c>
+      <c r="K13" t="n">
+        <v>42.64876504489518</v>
+      </c>
+      <c r="L13" t="n">
+        <v>161.9299681277156</v>
+      </c>
+      <c r="M13" t="n">
+        <v>39.804368272436</v>
+      </c>
+      <c r="N13" t="n">
+        <v>161.1739866739485</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.40407470356693</v>
+      </c>
+      <c r="P13" t="n">
+        <v>160.9668706782055</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30.18978526240923</v>
+      </c>
+      <c r="R13" t="n">
+        <v>160.6589820575546</v>
+      </c>
+      <c r="S13" t="n">
+        <v>35.48513233594187</v>
+      </c>
+      <c r="T13" t="n">
+        <v>164.3457533730992</v>
+      </c>
+      <c r="U13" t="n">
+        <v>31.57798351945255</v>
+      </c>
+      <c r="V13" t="n">
+        <v>163.3030131350846</v>
+      </c>
+      <c r="W13" t="n">
+        <v>33.66424395534264</v>
+      </c>
+      <c r="X13" t="n">
+        <v>162.318654810986</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,70 +2981,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2711,76 +3055,76 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2">
-        <v>79.483543363777784</v>
-      </c>
-      <c r="F2">
-        <v>87.827111826776076</v>
-      </c>
-      <c r="G2">
-        <v>75.336864742490803</v>
-      </c>
-      <c r="H2">
-        <v>89.797931074929181</v>
-      </c>
-      <c r="I2">
-        <v>92.207428693676633</v>
-      </c>
-      <c r="J2">
-        <v>88.441630158818441</v>
-      </c>
-      <c r="K2">
-        <v>84.092899025071247</v>
-      </c>
-      <c r="L2">
-        <v>88.683119894986049</v>
-      </c>
-      <c r="M2">
+        <v>88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79.48354336377778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>87.82711182677608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75.3368647424908</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.79793107492918</v>
+      </c>
+      <c r="I2" t="n">
+        <v>92.20742869367663</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88.44163015881844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84.09289902507125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88.68311989498605</v>
+      </c>
+      <c r="M2" t="n">
         <v>82.78018395625412</v>
       </c>
-      <c r="N2">
-        <v>88.687448238877437</v>
-      </c>
-      <c r="O2">
-        <v>83.325428963402175</v>
-      </c>
-      <c r="P2">
-        <v>91.026708405340614</v>
-      </c>
-      <c r="Q2">
-        <v>84.170239910790514</v>
-      </c>
-      <c r="R2">
-        <v>92.761001405172635</v>
-      </c>
-      <c r="S2">
-        <v>97.459386399194443</v>
-      </c>
-      <c r="T2">
-        <v>91.143277064972835</v>
-      </c>
-      <c r="U2">
-        <v>90.190697542916439</v>
-      </c>
-      <c r="V2">
-        <v>90.373586812342396</v>
-      </c>
-      <c r="W2">
-        <v>88.786438204075893</v>
-      </c>
-      <c r="X2">
-        <v>91.326143421957127</v>
+      <c r="N2" t="n">
+        <v>88.68744823887744</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83.32542896340217</v>
+      </c>
+      <c r="P2" t="n">
+        <v>91.02670840534061</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>84.17023991079051</v>
+      </c>
+      <c r="R2" t="n">
+        <v>92.76100140517264</v>
+      </c>
+      <c r="S2" t="n">
+        <v>97.45938639919444</v>
+      </c>
+      <c r="T2" t="n">
+        <v>91.14327706497284</v>
+      </c>
+      <c r="U2" t="n">
+        <v>90.19069754291644</v>
+      </c>
+      <c r="V2" t="n">
+        <v>90.3735868123424</v>
+      </c>
+      <c r="W2" t="n">
+        <v>88.78643820407589</v>
+      </c>
+      <c r="X2" t="n">
+        <v>91.32614342195713</v>
       </c>
       <c r="Y2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2791,67 +3135,67 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3">
-        <v>82.245302299684411</v>
-      </c>
-      <c r="F3">
-        <v>88.893459148953028</v>
-      </c>
-      <c r="G3">
-        <v>78.602729981240202</v>
-      </c>
-      <c r="H3">
-        <v>89.265719503472525</v>
-      </c>
-      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82.24530229968441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88.89345914895303</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78.6027299812402</v>
+      </c>
+      <c r="H3" t="n">
+        <v>89.26571950347252</v>
+      </c>
+      <c r="I3" t="n">
         <v>82.54208741343335</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>90.23046264073389</v>
       </c>
-      <c r="K3">
-        <v>60.870815498658189</v>
-      </c>
-      <c r="L3">
-        <v>90.286954762697007</v>
-      </c>
-      <c r="M3">
-        <v>76.065233798254042</v>
-      </c>
-      <c r="N3">
-        <v>89.669149013964116</v>
-      </c>
-      <c r="O3">
-        <v>80.755600591675574</v>
-      </c>
-      <c r="P3">
-        <v>90.927902396346724</v>
-      </c>
-      <c r="Q3">
-        <v>78.676501906319757</v>
-      </c>
-      <c r="R3">
-        <v>90.201511851545234</v>
-      </c>
-      <c r="S3">
-        <v>81.841899274666929</v>
-      </c>
-      <c r="T3">
-        <v>89.532830477080111</v>
-      </c>
-      <c r="U3">
-        <v>61.079904139061469</v>
-      </c>
-      <c r="V3">
-        <v>79.324259691462203</v>
-      </c>
-      <c r="W3">
-        <v>75.588476477930939</v>
-      </c>
-      <c r="X3">
-        <v>87.496626104108572</v>
+      <c r="K3" t="n">
+        <v>60.87081549865819</v>
+      </c>
+      <c r="L3" t="n">
+        <v>90.28695476269701</v>
+      </c>
+      <c r="M3" t="n">
+        <v>76.06523379825404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>89.66914901396412</v>
+      </c>
+      <c r="O3" t="n">
+        <v>80.75560059167557</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90.92790239634672</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>78.67650190631976</v>
+      </c>
+      <c r="R3" t="n">
+        <v>90.20151185154523</v>
+      </c>
+      <c r="S3" t="n">
+        <v>81.84189927466693</v>
+      </c>
+      <c r="T3" t="n">
+        <v>89.53283047708011</v>
+      </c>
+      <c r="U3" t="n">
+        <v>61.07990413906147</v>
+      </c>
+      <c r="V3" t="n">
+        <v>79.3242596914622</v>
+      </c>
+      <c r="W3" t="n">
+        <v>75.58847647793094</v>
+      </c>
+      <c r="X3" t="n">
+        <v>87.49662610410857</v>
       </c>
       <c r="Y3" t="s">
         <v>50</v>
@@ -2864,19 +3208,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,22 +3240,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2916,35 +3266,41 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>56.458083638446212</v>
-      </c>
-      <c r="F2">
-        <v>39.405954729255782</v>
-      </c>
-      <c r="G2">
-        <v>64.440402647650643</v>
-      </c>
-      <c r="H2">
-        <v>54.213811194391837</v>
+        <v>95</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56.45808363844621</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39.40595472925578</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64.44040264765064</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54.21381119439184</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2958,29 +3314,35 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2994,19 +3356,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3017,19 +3379,19 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="E2" t="n">
         <v>5.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>1.7666666666666671</v>
+      <c r="G2" t="n">
+        <v>1.766666666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/UI2/output/log.xlsx
+++ b/UI2/output/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -97,9 +97,24 @@
     <t>2018-4-5-19-32</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>2018-4-11-14-13</t>
+  </si>
+  <si>
+    <t>2018-4-11-14-14</t>
+  </si>
+  <si>
+    <t>2018-4-11-14-15</t>
+  </si>
+  <si>
     <t>sync_rate</t>
   </si>
   <si>
+    <t>2018-4-11-14-24</t>
+  </si>
+  <si>
     <t>1st lower right elbow angle</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
     <t>The 3rd time try, hands is not straight.</t>
   </si>
   <si>
+    <t>2018-4-11-14-26</t>
+  </si>
+  <si>
     <t>1st right hand angle (H-close)</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>2018-4-5-16-58</t>
   </si>
   <si>
+    <t>2018-4-11-14-28</t>
+  </si>
+  <si>
     <t>Max right bending angle</t>
   </si>
   <si>
@@ -310,12 +331,18 @@
     <t>2018-4-5-19-43</t>
   </si>
   <si>
+    <t>2018-4-11-14-30</t>
+  </si>
+  <si>
     <t>Max rotation depth</t>
   </si>
   <si>
     <t>Min rotation depth</t>
   </si>
   <si>
+    <t>2018-4-12-14-16</t>
+  </si>
+  <si>
     <t>Max hold time</t>
   </si>
   <si>
@@ -326,6 +353,12 @@
   </si>
   <si>
     <t>2018-4-5-18-20</t>
+  </si>
+  <si>
+    <t>2018-4-11-14-36</t>
+  </si>
+  <si>
+    <t>2018-4-11-14-37</t>
   </si>
 </sst>
 </file>
@@ -687,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT9"/>
+  <dimension ref="A1:DT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,1393 +1859,372 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:124">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.31365617670947</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71.66248247737987</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44.70430913035933</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:124">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.46148851148851</v>
+      </c>
+      <c r="F11" t="n">
+        <v>59.97636436630146</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.71184622408106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:124">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.56276962899051</v>
+      </c>
+      <c r="F12" t="n">
+        <v>75.6125922835154</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.85620445845393</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AE13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.13118543529918</v>
-      </c>
-      <c r="F2" t="n">
-        <v>153.937362451955</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.03777530555786</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156.1251142427821</v>
-      </c>
-      <c r="I2" t="n">
-        <v>39.81609675193812</v>
-      </c>
-      <c r="J2" t="n">
-        <v>155.1331346283276</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22.49752960008849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>155.6391969403722</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25.12064677322092</v>
-      </c>
-      <c r="N2" t="n">
-        <v>155.2087020658592</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.60879889517815</v>
-      </c>
-      <c r="P2" t="n">
-        <v>157.4612638876419</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>19.95580361031096</v>
-      </c>
-      <c r="R2" t="n">
-        <v>157.8347387662767</v>
-      </c>
-      <c r="S2" t="n">
-        <v>38.42104004637245</v>
-      </c>
-      <c r="T2" t="n">
-        <v>154.6110804455903</v>
-      </c>
-      <c r="U2" t="n">
-        <v>27.64377379075409</v>
-      </c>
-      <c r="V2" t="n">
-        <v>156.6264134434948</v>
-      </c>
-      <c r="W2" t="n">
-        <v>26.15735408565391</v>
-      </c>
-      <c r="X2" t="n">
-        <v>156.6333741357509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.53417277170924</v>
-      </c>
-      <c r="F3" t="n">
-        <v>155.5830461268877</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24.71637370698496</v>
-      </c>
-      <c r="H3" t="n">
-        <v>152.5469943419241</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.2320942361198</v>
-      </c>
-      <c r="J3" t="n">
-        <v>153.4996891551673</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.58452763832298</v>
-      </c>
-      <c r="L3" t="n">
-        <v>148.718275261706</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.51679208828424</v>
-      </c>
-      <c r="N3" t="n">
-        <v>152.5870012214213</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.91347165464054</v>
-      </c>
-      <c r="P3" t="n">
-        <v>159.856223442011</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>23.83879808655996</v>
-      </c>
-      <c r="R3" t="n">
-        <v>155.0633867974504</v>
-      </c>
-      <c r="S3" t="n">
-        <v>36.19177063174419</v>
-      </c>
-      <c r="T3" t="n">
-        <v>157.5981551951499</v>
-      </c>
-      <c r="U3" t="n">
-        <v>19.54477519274892</v>
-      </c>
-      <c r="V3" t="n">
-        <v>148.3919486405927</v>
-      </c>
-      <c r="W3" t="n">
-        <v>25.1222038914234</v>
-      </c>
-      <c r="X3" t="n">
-        <v>155.227428518801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.74494735474072</v>
-      </c>
-      <c r="F4" t="n">
-        <v>150.2243467553675</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26.63743402911649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>154.1793555080203</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36.08306592643022</v>
-      </c>
-      <c r="J4" t="n">
-        <v>148.8913334339927</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.85064619606793</v>
-      </c>
-      <c r="L4" t="n">
-        <v>143.600111438278</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25.07902337658884</v>
-      </c>
-      <c r="N4" t="n">
-        <v>149.2237867839146</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15.95664826230958</v>
-      </c>
-      <c r="P4" t="n">
-        <v>149.5113267588058</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>25.01358654240245</v>
-      </c>
-      <c r="R4" t="n">
-        <v>157.5799736789369</v>
-      </c>
-      <c r="S4" t="n">
-        <v>36.40129255522723</v>
-      </c>
-      <c r="T4" t="n">
-        <v>155.9566850276969</v>
-      </c>
-      <c r="U4" t="n">
-        <v>19.35107329198518</v>
-      </c>
-      <c r="V4" t="n">
-        <v>152.3944976518279</v>
-      </c>
-      <c r="W4" t="n">
-        <v>24.18065016298111</v>
-      </c>
-      <c r="X4" t="n">
-        <v>153.8606207793169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.56329401149264</v>
-      </c>
-      <c r="F5" t="n">
-        <v>150.1258387995352</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26.57084400435146</v>
-      </c>
-      <c r="H5" t="n">
-        <v>161.8985492317321</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27.95050165625385</v>
-      </c>
-      <c r="J5" t="n">
-        <v>159.8014637863111</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24.96164533174421</v>
-      </c>
-      <c r="L5" t="n">
-        <v>159.7618021851506</v>
-      </c>
-      <c r="M5" t="n">
-        <v>25.01157125096054</v>
-      </c>
-      <c r="N5" t="n">
-        <v>157.8969135006822</v>
-      </c>
-      <c r="O5" t="n">
-        <v>20.3172850572502</v>
-      </c>
-      <c r="P5" t="n">
-        <v>150.2633142600377</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>25.08528134954646</v>
-      </c>
-      <c r="R5" t="n">
-        <v>156.365220663638</v>
-      </c>
-      <c r="S5" t="n">
-        <v>26.10653206635032</v>
-      </c>
-      <c r="T5" t="n">
-        <v>155.8042620338283</v>
-      </c>
-      <c r="U5" t="n">
-        <v>26.28242617450013</v>
-      </c>
-      <c r="V5" t="n">
-        <v>154.4480394809468</v>
-      </c>
-      <c r="W5" t="n">
-        <v>24.44788116191178</v>
-      </c>
-      <c r="X5" t="n">
-        <v>154.2202091096127</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="n">
-        <v>65.42902266632176</v>
-      </c>
-      <c r="F6" t="n">
-        <v>156.3386013654371</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27.81644957910212</v>
-      </c>
-      <c r="H6" t="n">
-        <v>160.0025978696273</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24.74834116057389</v>
-      </c>
-      <c r="J6" t="n">
-        <v>166.3432132910485</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.35831876857311</v>
-      </c>
-      <c r="L6" t="n">
-        <v>161.4028702480262</v>
-      </c>
-      <c r="M6" t="n">
-        <v>36.83803304364272</v>
-      </c>
-      <c r="N6" t="n">
-        <v>161.0218206935348</v>
-      </c>
-      <c r="O6" t="n">
-        <v>57.45113631664019</v>
-      </c>
-      <c r="P6" t="n">
-        <v>157.5128162980224</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>25.45551399832439</v>
-      </c>
-      <c r="R6" t="n">
-        <v>158.9006558123207</v>
-      </c>
-      <c r="S6" t="n">
-        <v>18.09156379087452</v>
-      </c>
-      <c r="T6" t="n">
-        <v>166.5162094688721</v>
-      </c>
-      <c r="U6" t="n">
-        <v>18.12026639735536</v>
-      </c>
-      <c r="V6" t="n">
-        <v>157.875818836699</v>
-      </c>
-      <c r="W6" t="n">
-        <v>29.77962012579862</v>
-      </c>
-      <c r="X6" t="n">
-        <v>160.2013751039785</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50.24598524663367</v>
-      </c>
-      <c r="F7" t="n">
-        <v>158.7996952156165</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21.40796580923691</v>
-      </c>
-      <c r="H7" t="n">
-        <v>160.3103388858241</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22.45263928331905</v>
-      </c>
-      <c r="J7" t="n">
-        <v>157.6124803362043</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.0292109951267</v>
-      </c>
-      <c r="L7" t="n">
-        <v>75.20510870701064</v>
-      </c>
-      <c r="M7" t="n">
-        <v>29.28395033357908</v>
-      </c>
-      <c r="N7" t="n">
-        <v>137.9819057861639</v>
-      </c>
-      <c r="O7" t="n">
-        <v>34.50320573449537</v>
-      </c>
-      <c r="P7" t="n">
-        <v>159.6916936050082</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21.22792799676148</v>
-      </c>
-      <c r="R7" t="n">
-        <v>159.5866901003869</v>
-      </c>
-      <c r="S7" t="n">
-        <v>21.06450099761382</v>
-      </c>
-      <c r="T7" t="n">
-        <v>159.6402717420845</v>
-      </c>
-      <c r="U7" t="n">
-        <v>21.30090649781958</v>
-      </c>
-      <c r="V7" t="n">
-        <v>70.71071912091377</v>
-      </c>
-      <c r="W7" t="n">
-        <v>24.52413530667256</v>
-      </c>
-      <c r="X7" t="n">
-        <v>137.4073436420983</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>49.20468853457706</v>
-      </c>
-      <c r="F8" t="n">
-        <v>160.3389775149692</v>
-      </c>
-      <c r="G8" t="n">
-        <v>37.05580042136471</v>
-      </c>
-      <c r="H8" t="n">
-        <v>163.3299160874116</v>
-      </c>
-      <c r="I8" t="n">
-        <v>77.80750373093653</v>
-      </c>
-      <c r="J8" t="n">
-        <v>167.510395711538</v>
-      </c>
-      <c r="K8" t="n">
-        <v>48.66265341906784</v>
-      </c>
-      <c r="L8" t="n">
-        <v>158.8342985872563</v>
-      </c>
-      <c r="M8" t="n">
-        <v>53.18266152648654</v>
-      </c>
-      <c r="N8" t="n">
-        <v>162.5033969752938</v>
-      </c>
-      <c r="O8" t="n">
-        <v>42.00409369977572</v>
-      </c>
-      <c r="P8" t="n">
-        <v>158.7284451394938</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>31.43473662252205</v>
-      </c>
-      <c r="R8" t="n">
-        <v>160.4504693378618</v>
-      </c>
-      <c r="S8" t="n">
-        <v>79.06073677898978</v>
-      </c>
-      <c r="T8" t="n">
-        <v>159.6064596213462</v>
-      </c>
-      <c r="U8" t="n">
-        <v>40.76918443348421</v>
-      </c>
-      <c r="V8" t="n">
-        <v>158.243414386695</v>
-      </c>
-      <c r="W8" t="n">
-        <v>48.31718788369294</v>
-      </c>
-      <c r="X8" t="n">
-        <v>159.2571971213492</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="n">
-        <v>48.68786948964642</v>
-      </c>
-      <c r="F9" t="n">
-        <v>164.2464351306815</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43.09675607494187</v>
-      </c>
-      <c r="H9" t="n">
-        <v>161.5939307185546</v>
-      </c>
-      <c r="I9" t="n">
-        <v>59.57493151956245</v>
-      </c>
-      <c r="J9" t="n">
-        <v>162.729981000493</v>
-      </c>
-      <c r="K9" t="n">
-        <v>49.89207233902208</v>
-      </c>
-      <c r="L9" t="n">
-        <v>151.7154792309096</v>
-      </c>
-      <c r="M9" t="n">
-        <v>50.31290735579321</v>
-      </c>
-      <c r="N9" t="n">
-        <v>160.0714565201597</v>
-      </c>
-      <c r="O9" t="n">
-        <v>42.26475890296187</v>
-      </c>
-      <c r="P9" t="n">
-        <v>165.7338396358197</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>42.32614602554309</v>
-      </c>
-      <c r="R9" t="n">
-        <v>167.3427263353309</v>
-      </c>
-      <c r="S9" t="n">
-        <v>45.31571792699657</v>
-      </c>
-      <c r="T9" t="n">
-        <v>166.9183754840357</v>
-      </c>
-      <c r="U9" t="n">
-        <v>44.11143480768127</v>
-      </c>
-      <c r="V9" t="n">
-        <v>156.4686762489259</v>
-      </c>
-      <c r="W9" t="n">
-        <v>43.5045144157957</v>
-      </c>
-      <c r="X9" t="n">
-        <v>164.1159044260281</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="n">
-        <v>41.29015931907953</v>
-      </c>
-      <c r="F10" t="n">
-        <v>155.1050408194847</v>
-      </c>
-      <c r="G10" t="n">
-        <v>40.4729919392171</v>
-      </c>
-      <c r="H10" t="n">
-        <v>153.8873142619284</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38.02392249981284</v>
-      </c>
-      <c r="J10" t="n">
-        <v>167.5673056693469</v>
-      </c>
-      <c r="K10" t="n">
-        <v>74.35710823460367</v>
-      </c>
-      <c r="L10" t="n">
-        <v>169.6067644108018</v>
-      </c>
-      <c r="M10" t="n">
-        <v>48.53604549817828</v>
-      </c>
-      <c r="N10" t="n">
-        <v>161.5416062903905</v>
-      </c>
-      <c r="O10" t="n">
-        <v>36.13872999783077</v>
-      </c>
-      <c r="P10" t="n">
-        <v>153.5179102647105</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>43.11023650435842</v>
-      </c>
-      <c r="R10" t="n">
-        <v>153.8987805370695</v>
-      </c>
-      <c r="S10" t="n">
-        <v>35.48468016557045</v>
-      </c>
-      <c r="T10" t="n">
-        <v>161.9249488180715</v>
-      </c>
-      <c r="U10" t="n">
-        <v>78.08532048336021</v>
-      </c>
-      <c r="V10" t="n">
-        <v>164.3234945110322</v>
-      </c>
-      <c r="W10" t="n">
-        <v>48.20474178777995</v>
-      </c>
-      <c r="X10" t="n">
-        <v>158.4162835327209</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46.52520349441219</v>
-      </c>
-      <c r="F11" t="n">
-        <v>164.5168150763546</v>
-      </c>
-      <c r="G11" t="n">
-        <v>55.92813645942563</v>
-      </c>
-      <c r="H11" t="n">
-        <v>162.9366783587636</v>
-      </c>
-      <c r="I11" t="n">
-        <v>32.81771724096137</v>
-      </c>
-      <c r="J11" t="n">
-        <v>158.9195587573723</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44.327020040783</v>
-      </c>
-      <c r="L11" t="n">
-        <v>158.7351257160445</v>
-      </c>
-      <c r="M11" t="n">
-        <v>44.89951930889555</v>
-      </c>
-      <c r="N11" t="n">
-        <v>161.2770444771338</v>
-      </c>
-      <c r="O11" t="n">
-        <v>38.48581907584586</v>
-      </c>
-      <c r="P11" t="n">
-        <v>163.6364022756476</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>52.8764300343847</v>
-      </c>
-      <c r="R11" t="n">
-        <v>165.1723314282603</v>
-      </c>
-      <c r="S11" t="n">
-        <v>37.04746775313924</v>
-      </c>
-      <c r="T11" t="n">
-        <v>164.2474783725068</v>
-      </c>
-      <c r="U11" t="n">
-        <v>39.37945593223123</v>
-      </c>
-      <c r="V11" t="n">
-        <v>161.1060208860883</v>
-      </c>
-      <c r="W11" t="n">
-        <v>41.94729319890025</v>
-      </c>
-      <c r="X11" t="n">
-        <v>163.5405582406258</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="n">
-        <v>39.6799884135843</v>
-      </c>
-      <c r="F12" t="n">
-        <v>161.2861363892782</v>
-      </c>
-      <c r="G12" t="n">
-        <v>30.88953533562247</v>
-      </c>
-      <c r="H12" t="n">
-        <v>167.8534229695972</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34.80012702021224</v>
-      </c>
-      <c r="J12" t="n">
-        <v>163.9198508863201</v>
-      </c>
-      <c r="K12" t="n">
-        <v>38.35553480429351</v>
-      </c>
-      <c r="L12" t="n">
-        <v>167.1614624861737</v>
-      </c>
-      <c r="M12" t="n">
-        <v>35.93129639342813</v>
-      </c>
-      <c r="N12" t="n">
-        <v>165.0552181828423</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.22109688660528</v>
-      </c>
-      <c r="P12" t="n">
-        <v>157.8491087141673</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>27.96453194211622</v>
-      </c>
-      <c r="R12" t="n">
-        <v>162.9291523542691</v>
-      </c>
-      <c r="S12" t="n">
-        <v>34.2348216289128</v>
-      </c>
-      <c r="T12" t="n">
-        <v>163.3107375287605</v>
-      </c>
-      <c r="U12" t="n">
-        <v>42.14048485360357</v>
-      </c>
-      <c r="V12" t="n">
-        <v>161.8629601704464</v>
-      </c>
-      <c r="W12" t="n">
-        <v>35.89023382780947</v>
-      </c>
-      <c r="X12" t="n">
-        <v>161.4879896919108</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="n">
-        <v>36.9230401926055</v>
-      </c>
-      <c r="F13" t="n">
-        <v>161.6914877206882</v>
-      </c>
-      <c r="G13" t="n">
-        <v>44.39091826741485</v>
-      </c>
-      <c r="H13" t="n">
-        <v>158.1611386089151</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35.25474958482847</v>
-      </c>
-      <c r="J13" t="n">
-        <v>162.9133522384752</v>
-      </c>
-      <c r="K13" t="n">
-        <v>42.64876504489518</v>
-      </c>
-      <c r="L13" t="n">
-        <v>161.9299681277156</v>
-      </c>
-      <c r="M13" t="n">
-        <v>39.804368272436</v>
-      </c>
-      <c r="N13" t="n">
-        <v>161.1739866739485</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.40407470356693</v>
-      </c>
-      <c r="P13" t="n">
-        <v>160.9668706782055</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>30.18978526240923</v>
-      </c>
-      <c r="R13" t="n">
-        <v>160.6589820575546</v>
-      </c>
-      <c r="S13" t="n">
-        <v>35.48513233594187</v>
-      </c>
-      <c r="T13" t="n">
-        <v>164.3457533730992</v>
-      </c>
-      <c r="U13" t="n">
-        <v>31.57798351945255</v>
-      </c>
-      <c r="V13" t="n">
-        <v>163.3030131350846</v>
-      </c>
-      <c r="W13" t="n">
-        <v>33.66424395534264</v>
-      </c>
-      <c r="X13" t="n">
-        <v>162.318654810986</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA3"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79.48354336377778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>87.82711182677608</v>
-      </c>
-      <c r="G2" t="n">
-        <v>75.3368647424908</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89.79793107492918</v>
-      </c>
-      <c r="I2" t="n">
-        <v>92.20742869367663</v>
-      </c>
-      <c r="J2" t="n">
-        <v>88.44163015881844</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84.09289902507125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88.68311989498605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82.78018395625412</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88.68744823887744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83.32542896340217</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91.02670840534061</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>84.17023991079051</v>
-      </c>
-      <c r="R2" t="n">
-        <v>92.76100140517264</v>
-      </c>
-      <c r="S2" t="n">
-        <v>97.45938639919444</v>
-      </c>
-      <c r="T2" t="n">
-        <v>91.14327706497284</v>
-      </c>
-      <c r="U2" t="n">
-        <v>90.19069754291644</v>
-      </c>
-      <c r="V2" t="n">
-        <v>90.3735868123424</v>
-      </c>
-      <c r="W2" t="n">
-        <v>88.78643820407589</v>
-      </c>
-      <c r="X2" t="n">
-        <v>91.32614342195713</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="n">
-        <v>82.24530229968441</v>
-      </c>
-      <c r="F3" t="n">
-        <v>88.89345914895303</v>
-      </c>
-      <c r="G3" t="n">
-        <v>78.6027299812402</v>
-      </c>
-      <c r="H3" t="n">
-        <v>89.26571950347252</v>
-      </c>
-      <c r="I3" t="n">
-        <v>82.54208741343335</v>
-      </c>
-      <c r="J3" t="n">
-        <v>90.23046264073389</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.87081549865819</v>
-      </c>
-      <c r="L3" t="n">
-        <v>90.28695476269701</v>
-      </c>
-      <c r="M3" t="n">
-        <v>76.06523379825404</v>
-      </c>
-      <c r="N3" t="n">
-        <v>89.66914901396412</v>
-      </c>
-      <c r="O3" t="n">
-        <v>80.75560059167557</v>
-      </c>
-      <c r="P3" t="n">
-        <v>90.92790239634672</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>78.67650190631976</v>
-      </c>
-      <c r="R3" t="n">
-        <v>90.20151185154523</v>
-      </c>
-      <c r="S3" t="n">
-        <v>81.84189927466693</v>
-      </c>
-      <c r="T3" t="n">
-        <v>89.53283047708011</v>
-      </c>
-      <c r="U3" t="n">
-        <v>61.07990413906147</v>
-      </c>
-      <c r="V3" t="n">
-        <v>79.3242596914622</v>
-      </c>
-      <c r="W3" t="n">
-        <v>75.58847647793094</v>
-      </c>
-      <c r="X3" t="n">
-        <v>87.49662610410857</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3240,16 +2252,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -3259,6 +2271,128 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.56297182349813</v>
+      </c>
+      <c r="F2" t="n">
+        <v>87.15333481877596</v>
+      </c>
+      <c r="G2" t="n">
+        <v>71.29381954922519</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +2400,1452 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.13118543529918</v>
+      </c>
+      <c r="F2" t="n">
+        <v>153.937362451955</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.03777530555786</v>
+      </c>
+      <c r="H2" t="n">
+        <v>156.1251142427821</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39.81609675193812</v>
+      </c>
+      <c r="J2" t="n">
+        <v>155.1331346283276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.49752960008849</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155.6391969403722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25.12064677322092</v>
+      </c>
+      <c r="N2" t="n">
+        <v>155.2087020658592</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.60879889517815</v>
+      </c>
+      <c r="P2" t="n">
+        <v>157.4612638876419</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19.95580361031096</v>
+      </c>
+      <c r="R2" t="n">
+        <v>157.8347387662767</v>
+      </c>
+      <c r="S2" t="n">
+        <v>38.42104004637245</v>
+      </c>
+      <c r="T2" t="n">
+        <v>154.6110804455903</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.64377379075409</v>
+      </c>
+      <c r="V2" t="n">
+        <v>156.6264134434948</v>
+      </c>
+      <c r="W2" t="n">
+        <v>26.15735408565391</v>
+      </c>
+      <c r="X2" t="n">
+        <v>156.6333741357509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.53417277170924</v>
+      </c>
+      <c r="F3" t="n">
+        <v>155.5830461268877</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.71637370698496</v>
+      </c>
+      <c r="H3" t="n">
+        <v>152.5469943419241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.2320942361198</v>
+      </c>
+      <c r="J3" t="n">
+        <v>153.4996891551673</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.58452763832298</v>
+      </c>
+      <c r="L3" t="n">
+        <v>148.718275261706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24.51679208828424</v>
+      </c>
+      <c r="N3" t="n">
+        <v>152.5870012214213</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20.91347165464054</v>
+      </c>
+      <c r="P3" t="n">
+        <v>159.856223442011</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23.83879808655996</v>
+      </c>
+      <c r="R3" t="n">
+        <v>155.0633867974504</v>
+      </c>
+      <c r="S3" t="n">
+        <v>36.19177063174419</v>
+      </c>
+      <c r="T3" t="n">
+        <v>157.5981551951499</v>
+      </c>
+      <c r="U3" t="n">
+        <v>19.54477519274892</v>
+      </c>
+      <c r="V3" t="n">
+        <v>148.3919486405927</v>
+      </c>
+      <c r="W3" t="n">
+        <v>25.1222038914234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>155.227428518801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.74494735474072</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150.2243467553675</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.63743402911649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>154.1793555080203</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36.08306592643022</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148.8913334339927</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.85064619606793</v>
+      </c>
+      <c r="L4" t="n">
+        <v>143.600111438278</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.07902337658884</v>
+      </c>
+      <c r="N4" t="n">
+        <v>149.2237867839146</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15.95664826230958</v>
+      </c>
+      <c r="P4" t="n">
+        <v>149.5113267588058</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25.01358654240245</v>
+      </c>
+      <c r="R4" t="n">
+        <v>157.5799736789369</v>
+      </c>
+      <c r="S4" t="n">
+        <v>36.40129255522723</v>
+      </c>
+      <c r="T4" t="n">
+        <v>155.9566850276969</v>
+      </c>
+      <c r="U4" t="n">
+        <v>19.35107329198518</v>
+      </c>
+      <c r="V4" t="n">
+        <v>152.3944976518279</v>
+      </c>
+      <c r="W4" t="n">
+        <v>24.18065016298111</v>
+      </c>
+      <c r="X4" t="n">
+        <v>153.8606207793169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.56329401149264</v>
+      </c>
+      <c r="F5" t="n">
+        <v>150.1258387995352</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.57084400435146</v>
+      </c>
+      <c r="H5" t="n">
+        <v>161.8985492317321</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27.95050165625385</v>
+      </c>
+      <c r="J5" t="n">
+        <v>159.8014637863111</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.96164533174421</v>
+      </c>
+      <c r="L5" t="n">
+        <v>159.7618021851506</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25.01157125096054</v>
+      </c>
+      <c r="N5" t="n">
+        <v>157.8969135006822</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20.3172850572502</v>
+      </c>
+      <c r="P5" t="n">
+        <v>150.2633142600377</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>25.08528134954646</v>
+      </c>
+      <c r="R5" t="n">
+        <v>156.365220663638</v>
+      </c>
+      <c r="S5" t="n">
+        <v>26.10653206635032</v>
+      </c>
+      <c r="T5" t="n">
+        <v>155.8042620338283</v>
+      </c>
+      <c r="U5" t="n">
+        <v>26.28242617450013</v>
+      </c>
+      <c r="V5" t="n">
+        <v>154.4480394809468</v>
+      </c>
+      <c r="W5" t="n">
+        <v>24.44788116191178</v>
+      </c>
+      <c r="X5" t="n">
+        <v>154.2202091096127</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>65.42902266632176</v>
+      </c>
+      <c r="F6" t="n">
+        <v>156.3386013654371</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.81644957910212</v>
+      </c>
+      <c r="H6" t="n">
+        <v>160.0025978696273</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.74834116057389</v>
+      </c>
+      <c r="J6" t="n">
+        <v>166.3432132910485</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.35831876857311</v>
+      </c>
+      <c r="L6" t="n">
+        <v>161.4028702480262</v>
+      </c>
+      <c r="M6" t="n">
+        <v>36.83803304364272</v>
+      </c>
+      <c r="N6" t="n">
+        <v>161.0218206935348</v>
+      </c>
+      <c r="O6" t="n">
+        <v>57.45113631664019</v>
+      </c>
+      <c r="P6" t="n">
+        <v>157.5128162980224</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25.45551399832439</v>
+      </c>
+      <c r="R6" t="n">
+        <v>158.9006558123207</v>
+      </c>
+      <c r="S6" t="n">
+        <v>18.09156379087452</v>
+      </c>
+      <c r="T6" t="n">
+        <v>166.5162094688721</v>
+      </c>
+      <c r="U6" t="n">
+        <v>18.12026639735536</v>
+      </c>
+      <c r="V6" t="n">
+        <v>157.875818836699</v>
+      </c>
+      <c r="W6" t="n">
+        <v>29.77962012579862</v>
+      </c>
+      <c r="X6" t="n">
+        <v>160.2013751039785</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.24598524663367</v>
+      </c>
+      <c r="F7" t="n">
+        <v>158.7996952156165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.40796580923691</v>
+      </c>
+      <c r="H7" t="n">
+        <v>160.3103388858241</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.45263928331905</v>
+      </c>
+      <c r="J7" t="n">
+        <v>157.6124803362043</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.0292109951267</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75.20510870701064</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29.28395033357908</v>
+      </c>
+      <c r="N7" t="n">
+        <v>137.9819057861639</v>
+      </c>
+      <c r="O7" t="n">
+        <v>34.50320573449537</v>
+      </c>
+      <c r="P7" t="n">
+        <v>159.6916936050082</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21.22792799676148</v>
+      </c>
+      <c r="R7" t="n">
+        <v>159.5866901003869</v>
+      </c>
+      <c r="S7" t="n">
+        <v>21.06450099761382</v>
+      </c>
+      <c r="T7" t="n">
+        <v>159.6402717420845</v>
+      </c>
+      <c r="U7" t="n">
+        <v>21.30090649781958</v>
+      </c>
+      <c r="V7" t="n">
+        <v>70.71071912091377</v>
+      </c>
+      <c r="W7" t="n">
+        <v>24.52413530667256</v>
+      </c>
+      <c r="X7" t="n">
+        <v>137.4073436420983</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>49.20468853457706</v>
+      </c>
+      <c r="F8" t="n">
+        <v>160.3389775149692</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37.05580042136471</v>
+      </c>
+      <c r="H8" t="n">
+        <v>163.3299160874116</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77.80750373093653</v>
+      </c>
+      <c r="J8" t="n">
+        <v>167.510395711538</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48.66265341906784</v>
+      </c>
+      <c r="L8" t="n">
+        <v>158.8342985872563</v>
+      </c>
+      <c r="M8" t="n">
+        <v>53.18266152648654</v>
+      </c>
+      <c r="N8" t="n">
+        <v>162.5033969752938</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42.00409369977572</v>
+      </c>
+      <c r="P8" t="n">
+        <v>158.7284451394938</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31.43473662252205</v>
+      </c>
+      <c r="R8" t="n">
+        <v>160.4504693378618</v>
+      </c>
+      <c r="S8" t="n">
+        <v>79.06073677898978</v>
+      </c>
+      <c r="T8" t="n">
+        <v>159.6064596213462</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40.76918443348421</v>
+      </c>
+      <c r="V8" t="n">
+        <v>158.243414386695</v>
+      </c>
+      <c r="W8" t="n">
+        <v>48.31718788369294</v>
+      </c>
+      <c r="X8" t="n">
+        <v>159.2571971213492</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.68786948964642</v>
+      </c>
+      <c r="F9" t="n">
+        <v>164.2464351306815</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.09675607494187</v>
+      </c>
+      <c r="H9" t="n">
+        <v>161.5939307185546</v>
+      </c>
+      <c r="I9" t="n">
+        <v>59.57493151956245</v>
+      </c>
+      <c r="J9" t="n">
+        <v>162.729981000493</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49.89207233902208</v>
+      </c>
+      <c r="L9" t="n">
+        <v>151.7154792309096</v>
+      </c>
+      <c r="M9" t="n">
+        <v>50.31290735579321</v>
+      </c>
+      <c r="N9" t="n">
+        <v>160.0714565201597</v>
+      </c>
+      <c r="O9" t="n">
+        <v>42.26475890296187</v>
+      </c>
+      <c r="P9" t="n">
+        <v>165.7338396358197</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>42.32614602554309</v>
+      </c>
+      <c r="R9" t="n">
+        <v>167.3427263353309</v>
+      </c>
+      <c r="S9" t="n">
+        <v>45.31571792699657</v>
+      </c>
+      <c r="T9" t="n">
+        <v>166.9183754840357</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44.11143480768127</v>
+      </c>
+      <c r="V9" t="n">
+        <v>156.4686762489259</v>
+      </c>
+      <c r="W9" t="n">
+        <v>43.5045144157957</v>
+      </c>
+      <c r="X9" t="n">
+        <v>164.1159044260281</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41.29015931907953</v>
+      </c>
+      <c r="F10" t="n">
+        <v>155.1050408194847</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.4729919392171</v>
+      </c>
+      <c r="H10" t="n">
+        <v>153.8873142619284</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.02392249981284</v>
+      </c>
+      <c r="J10" t="n">
+        <v>167.5673056693469</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74.35710823460367</v>
+      </c>
+      <c r="L10" t="n">
+        <v>169.6067644108018</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48.53604549817828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>161.5416062903905</v>
+      </c>
+      <c r="O10" t="n">
+        <v>36.13872999783077</v>
+      </c>
+      <c r="P10" t="n">
+        <v>153.5179102647105</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>43.11023650435842</v>
+      </c>
+      <c r="R10" t="n">
+        <v>153.8987805370695</v>
+      </c>
+      <c r="S10" t="n">
+        <v>35.48468016557045</v>
+      </c>
+      <c r="T10" t="n">
+        <v>161.9249488180715</v>
+      </c>
+      <c r="U10" t="n">
+        <v>78.08532048336021</v>
+      </c>
+      <c r="V10" t="n">
+        <v>164.3234945110322</v>
+      </c>
+      <c r="W10" t="n">
+        <v>48.20474178777995</v>
+      </c>
+      <c r="X10" t="n">
+        <v>158.4162835327209</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.52520349441219</v>
+      </c>
+      <c r="F11" t="n">
+        <v>164.5168150763546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55.92813645942563</v>
+      </c>
+      <c r="H11" t="n">
+        <v>162.9366783587636</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.81771724096137</v>
+      </c>
+      <c r="J11" t="n">
+        <v>158.9195587573723</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.327020040783</v>
+      </c>
+      <c r="L11" t="n">
+        <v>158.7351257160445</v>
+      </c>
+      <c r="M11" t="n">
+        <v>44.89951930889555</v>
+      </c>
+      <c r="N11" t="n">
+        <v>161.2770444771338</v>
+      </c>
+      <c r="O11" t="n">
+        <v>38.48581907584586</v>
+      </c>
+      <c r="P11" t="n">
+        <v>163.6364022756476</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>52.8764300343847</v>
+      </c>
+      <c r="R11" t="n">
+        <v>165.1723314282603</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37.04746775313924</v>
+      </c>
+      <c r="T11" t="n">
+        <v>164.2474783725068</v>
+      </c>
+      <c r="U11" t="n">
+        <v>39.37945593223123</v>
+      </c>
+      <c r="V11" t="n">
+        <v>161.1060208860883</v>
+      </c>
+      <c r="W11" t="n">
+        <v>41.94729319890025</v>
+      </c>
+      <c r="X11" t="n">
+        <v>163.5405582406258</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="n">
+        <v>39.6799884135843</v>
+      </c>
+      <c r="F12" t="n">
+        <v>161.2861363892782</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.88953533562247</v>
+      </c>
+      <c r="H12" t="n">
+        <v>167.8534229695972</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34.80012702021224</v>
+      </c>
+      <c r="J12" t="n">
+        <v>163.9198508863201</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38.35553480429351</v>
+      </c>
+      <c r="L12" t="n">
+        <v>167.1614624861737</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35.93129639342813</v>
+      </c>
+      <c r="N12" t="n">
+        <v>165.0552181828423</v>
+      </c>
+      <c r="O12" t="n">
+        <v>39.22109688660528</v>
+      </c>
+      <c r="P12" t="n">
+        <v>157.8491087141673</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>27.96453194211622</v>
+      </c>
+      <c r="R12" t="n">
+        <v>162.9291523542691</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34.2348216289128</v>
+      </c>
+      <c r="T12" t="n">
+        <v>163.3107375287605</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42.14048485360357</v>
+      </c>
+      <c r="V12" t="n">
+        <v>161.8629601704464</v>
+      </c>
+      <c r="W12" t="n">
+        <v>35.89023382780947</v>
+      </c>
+      <c r="X12" t="n">
+        <v>161.4879896919108</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>36.9230401926055</v>
+      </c>
+      <c r="F13" t="n">
+        <v>161.6914877206882</v>
+      </c>
+      <c r="G13" t="n">
+        <v>44.39091826741485</v>
+      </c>
+      <c r="H13" t="n">
+        <v>158.1611386089151</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.25474958482847</v>
+      </c>
+      <c r="J13" t="n">
+        <v>162.9133522384752</v>
+      </c>
+      <c r="K13" t="n">
+        <v>42.64876504489518</v>
+      </c>
+      <c r="L13" t="n">
+        <v>161.9299681277156</v>
+      </c>
+      <c r="M13" t="n">
+        <v>39.804368272436</v>
+      </c>
+      <c r="N13" t="n">
+        <v>161.1739866739485</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.40407470356693</v>
+      </c>
+      <c r="P13" t="n">
+        <v>160.9668706782055</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30.18978526240923</v>
+      </c>
+      <c r="R13" t="n">
+        <v>160.6589820575546</v>
+      </c>
+      <c r="S13" t="n">
+        <v>35.48513233594187</v>
+      </c>
+      <c r="T13" t="n">
+        <v>164.3457533730992</v>
+      </c>
+      <c r="U13" t="n">
+        <v>31.57798351945255</v>
+      </c>
+      <c r="V13" t="n">
+        <v>163.3030131350846</v>
+      </c>
+      <c r="W13" t="n">
+        <v>33.66424395534264</v>
+      </c>
+      <c r="X13" t="n">
+        <v>162.318654810986</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50.38192504582483</v>
+      </c>
+      <c r="F14" t="n">
+        <v>164.3303383153288</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.13890388457486</v>
+      </c>
+      <c r="H14" t="n">
+        <v>164.6492758514296</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51.80862519352551</v>
+      </c>
+      <c r="J14" t="n">
+        <v>163.3352116621342</v>
+      </c>
+      <c r="K14" t="n">
+        <v>52.52076606458532</v>
+      </c>
+      <c r="L14" t="n">
+        <v>166.0155484011583</v>
+      </c>
+      <c r="M14" t="n">
+        <v>52.96255504712762</v>
+      </c>
+      <c r="N14" t="n">
+        <v>164.5825935575128</v>
+      </c>
+      <c r="O14" t="n">
+        <v>38.45390639532366</v>
+      </c>
+      <c r="P14" t="n">
+        <v>165.5869105018871</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>64.42396787022834</v>
+      </c>
+      <c r="R14" t="n">
+        <v>168.2076695442202</v>
+      </c>
+      <c r="S14" t="n">
+        <v>38.68953890925676</v>
+      </c>
+      <c r="T14" t="n">
+        <v>164.6834086710267</v>
+      </c>
+      <c r="U14" t="n">
+        <v>54.47406150726072</v>
+      </c>
+      <c r="V14" t="n">
+        <v>168.0644947986317</v>
+      </c>
+      <c r="W14" t="n">
+        <v>49.01036867051737</v>
+      </c>
+      <c r="X14" t="n">
+        <v>166.6356208789414</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79.48354336377778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>87.82711182677608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75.3368647424908</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.79793107492918</v>
+      </c>
+      <c r="I2" t="n">
+        <v>92.20742869367663</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88.44163015881844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84.09289902507125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88.68311989498605</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82.78018395625412</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88.68744823887744</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83.32542896340217</v>
+      </c>
+      <c r="P2" t="n">
+        <v>91.02670840534061</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>84.17023991079051</v>
+      </c>
+      <c r="R2" t="n">
+        <v>92.76100140517264</v>
+      </c>
+      <c r="S2" t="n">
+        <v>97.45938639919444</v>
+      </c>
+      <c r="T2" t="n">
+        <v>91.14327706497284</v>
+      </c>
+      <c r="U2" t="n">
+        <v>90.19069754291644</v>
+      </c>
+      <c r="V2" t="n">
+        <v>90.3735868123424</v>
+      </c>
+      <c r="W2" t="n">
+        <v>88.78643820407589</v>
+      </c>
+      <c r="X2" t="n">
+        <v>91.32614342195713</v>
+      </c>
+      <c r="Y2" t="s">
         <v>95</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82.24530229968441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88.89345914895303</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78.6027299812402</v>
+      </c>
+      <c r="H3" t="n">
+        <v>89.26571950347252</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82.54208741343335</v>
+      </c>
+      <c r="J3" t="n">
+        <v>90.23046264073389</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.87081549865819</v>
+      </c>
+      <c r="L3" t="n">
+        <v>90.28695476269701</v>
+      </c>
+      <c r="M3" t="n">
+        <v>76.06523379825404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>89.66914901396412</v>
+      </c>
+      <c r="O3" t="n">
+        <v>80.75560059167557</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90.92790239634672</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>78.67650190631976</v>
+      </c>
+      <c r="R3" t="n">
+        <v>90.20151185154523</v>
+      </c>
+      <c r="S3" t="n">
+        <v>81.84189927466693</v>
+      </c>
+      <c r="T3" t="n">
+        <v>89.53283047708011</v>
+      </c>
+      <c r="U3" t="n">
+        <v>61.07990413906147</v>
+      </c>
+      <c r="V3" t="n">
+        <v>79.3242596914622</v>
+      </c>
+      <c r="W3" t="n">
+        <v>75.58847647793094</v>
+      </c>
+      <c r="X3" t="n">
+        <v>87.49662610410857</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96.13484642886962</v>
+      </c>
+      <c r="F4" t="n">
+        <v>93.16718306189397</v>
+      </c>
+      <c r="G4" t="n">
+        <v>91.68758512524838</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93.41256866391051</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93.72142232148266</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88.40127641338776</v>
+      </c>
+      <c r="K4" t="n">
+        <v>91.36610403717124</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94.28004462546427</v>
+      </c>
+      <c r="M4" t="n">
+        <v>93.22748947819298</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92.31526819116412</v>
+      </c>
+      <c r="O4" t="n">
+        <v>88.79265294654516</v>
+      </c>
+      <c r="P4" t="n">
+        <v>92.46311247720334</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>89.43143402537181</v>
+      </c>
+      <c r="R4" t="n">
+        <v>89.8908552767938</v>
+      </c>
+      <c r="S4" t="n">
+        <v>90.73739521036276</v>
+      </c>
+      <c r="T4" t="n">
+        <v>84.85216825154038</v>
+      </c>
+      <c r="U4" t="n">
+        <v>84.43303740451202</v>
+      </c>
+      <c r="V4" t="n">
+        <v>91.42811104087825</v>
+      </c>
+      <c r="W4" t="n">
+        <v>88.34862989669793</v>
+      </c>
+      <c r="X4" t="n">
+        <v>89.65856176160395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
       </c>
       <c r="E2" t="n">
         <v>56.45808363844621</v>
@@ -3279,6 +3858,32 @@
       </c>
       <c r="H2" t="n">
         <v>54.21381119439184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.92874161257099</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47.79369674309672</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52.89881459213247</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.34764856679733</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,13 +3919,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="n">
+        <v>153</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3356,13 +4001,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3379,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>5.8</v>
@@ -3389,6 +4034,52 @@
       </c>
       <c r="G2" t="n">
         <v>1.766666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.644444444444444</v>
       </c>
     </row>
   </sheetData>
